--- a/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>380700</v>
+        <v>415500</v>
       </c>
       <c r="E8" s="3">
-        <v>343300</v>
+        <v>387100</v>
       </c>
       <c r="F8" s="3">
-        <v>353800</v>
+        <v>349000</v>
       </c>
       <c r="G8" s="3">
-        <v>319100</v>
+        <v>359700</v>
       </c>
       <c r="H8" s="3">
-        <v>239200</v>
+        <v>324400</v>
       </c>
       <c r="I8" s="3">
-        <v>251500</v>
+        <v>243200</v>
       </c>
       <c r="J8" s="3">
+        <v>255700</v>
+      </c>
+      <c r="K8" s="3">
         <v>891900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>282300</v>
+        <v>301500</v>
       </c>
       <c r="E9" s="3">
-        <v>246800</v>
+        <v>287000</v>
       </c>
       <c r="F9" s="3">
-        <v>254800</v>
+        <v>251000</v>
       </c>
       <c r="G9" s="3">
-        <v>238600</v>
+        <v>259100</v>
       </c>
       <c r="H9" s="3">
-        <v>180700</v>
+        <v>242600</v>
       </c>
       <c r="I9" s="3">
-        <v>170100</v>
+        <v>183800</v>
       </c>
       <c r="J9" s="3">
+        <v>172900</v>
+      </c>
+      <c r="K9" s="3">
         <v>611000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>279300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>98400</v>
+        <v>114000</v>
       </c>
       <c r="E10" s="3">
-        <v>96500</v>
+        <v>100100</v>
       </c>
       <c r="F10" s="3">
-        <v>99000</v>
+        <v>98100</v>
       </c>
       <c r="G10" s="3">
-        <v>80400</v>
+        <v>100600</v>
       </c>
       <c r="H10" s="3">
-        <v>58400</v>
+        <v>81800</v>
       </c>
       <c r="I10" s="3">
-        <v>81400</v>
+        <v>59400</v>
       </c>
       <c r="J10" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K10" s="3">
         <v>280900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,13 +888,16 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>500</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -888,20 +908,23 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>-2700</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>351800</v>
+        <v>382100</v>
       </c>
       <c r="E17" s="3">
-        <v>318500</v>
+        <v>357700</v>
       </c>
       <c r="F17" s="3">
-        <v>345400</v>
+        <v>323800</v>
       </c>
       <c r="G17" s="3">
-        <v>319400</v>
+        <v>351200</v>
       </c>
       <c r="H17" s="3">
-        <v>243700</v>
+        <v>324700</v>
       </c>
       <c r="I17" s="3">
-        <v>245300</v>
+        <v>247800</v>
       </c>
       <c r="J17" s="3">
+        <v>249400</v>
+      </c>
+      <c r="K17" s="3">
         <v>775500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>28900</v>
+        <v>33400</v>
       </c>
       <c r="E18" s="3">
-        <v>24800</v>
+        <v>29400</v>
       </c>
       <c r="F18" s="3">
-        <v>8400</v>
+        <v>25200</v>
       </c>
       <c r="G18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="I18" s="3">
-        <v>6100</v>
-      </c>
       <c r="J18" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K18" s="3">
         <v>116500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,37 +1043,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-249900</v>
-      </c>
       <c r="H20" s="3">
+        <v>-254100</v>
+      </c>
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
-        <v>26500</v>
-      </c>
       <c r="J20" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-128300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-87300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1056,20 +1093,23 @@
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
-        <v>7200</v>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>63300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1085,78 +1125,87 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>28500</v>
+        <v>32900</v>
       </c>
       <c r="E23" s="3">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="F23" s="3">
-        <v>9500</v>
+        <v>25400</v>
       </c>
       <c r="G23" s="3">
-        <v>-250300</v>
+        <v>9600</v>
       </c>
       <c r="H23" s="3">
-        <v>-5100</v>
+        <v>-254500</v>
       </c>
       <c r="I23" s="3">
-        <v>29400</v>
+        <v>-5200</v>
       </c>
       <c r="J23" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11400</v>
+        <v>8700</v>
       </c>
       <c r="E24" s="3">
-        <v>7300</v>
+        <v>11600</v>
       </c>
       <c r="F24" s="3">
-        <v>6300</v>
+        <v>7400</v>
       </c>
       <c r="G24" s="3">
-        <v>7800</v>
+        <v>6400</v>
       </c>
       <c r="H24" s="3">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="I24" s="3">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="J24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K24" s="3">
         <v>22800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17100</v>
+        <v>24200</v>
       </c>
       <c r="E26" s="3">
-        <v>17700</v>
+        <v>17400</v>
       </c>
       <c r="F26" s="3">
-        <v>3200</v>
+        <v>18000</v>
       </c>
       <c r="G26" s="3">
-        <v>-258100</v>
+        <v>3300</v>
       </c>
       <c r="H26" s="3">
-        <v>-11500</v>
+        <v>-262400</v>
       </c>
       <c r="I26" s="3">
-        <v>26200</v>
+        <v>-11700</v>
       </c>
       <c r="J26" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-34700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17700</v>
+        <v>23800</v>
       </c>
       <c r="E27" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="F27" s="3">
-        <v>3200</v>
+        <v>19100</v>
       </c>
       <c r="G27" s="3">
-        <v>-257500</v>
+        <v>3300</v>
       </c>
       <c r="H27" s="3">
-        <v>-12500</v>
+        <v>-261900</v>
       </c>
       <c r="I27" s="3">
-        <v>26900</v>
+        <v>-12700</v>
       </c>
       <c r="J27" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-34700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-51800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,16 +1329,19 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1288,20 +1349,23 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>5000</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-15100</v>
+        <v>5100</v>
       </c>
       <c r="J29" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-9900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1425,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>249900</v>
-      </c>
       <c r="H32" s="3">
+        <v>254100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
-        <v>-26500</v>
-      </c>
       <c r="J32" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="K32" s="3">
         <v>128300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17700</v>
+        <v>23800</v>
       </c>
       <c r="E33" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="F33" s="3">
-        <v>3200</v>
+        <v>19100</v>
       </c>
       <c r="G33" s="3">
-        <v>-257500</v>
+        <v>3300</v>
       </c>
       <c r="H33" s="3">
-        <v>-7500</v>
+        <v>-261900</v>
       </c>
       <c r="I33" s="3">
-        <v>11800</v>
+        <v>-7600</v>
       </c>
       <c r="J33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-44600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17700</v>
+        <v>23800</v>
       </c>
       <c r="E35" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="F35" s="3">
-        <v>3200</v>
+        <v>19100</v>
       </c>
       <c r="G35" s="3">
-        <v>-257500</v>
+        <v>3300</v>
       </c>
       <c r="H35" s="3">
-        <v>-7500</v>
+        <v>-261900</v>
       </c>
       <c r="I35" s="3">
-        <v>11800</v>
+        <v>-7600</v>
       </c>
       <c r="J35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-44600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,196 +1620,215 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1042700</v>
+        <v>928500</v>
       </c>
       <c r="E41" s="3">
-        <v>1066200</v>
+        <v>1060200</v>
       </c>
       <c r="F41" s="3">
-        <v>1053300</v>
+        <v>1084100</v>
       </c>
       <c r="G41" s="3">
-        <v>455900</v>
+        <v>1070900</v>
       </c>
       <c r="H41" s="3">
-        <v>439500</v>
+        <v>463600</v>
       </c>
       <c r="I41" s="3">
-        <v>371000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
+        <v>446800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>377200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15900</v>
+        <v>32100</v>
       </c>
       <c r="E42" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="F42" s="3">
-        <v>15500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
+        <v>15800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>20900</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>21300</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>127000</v>
+        <v>158900</v>
       </c>
       <c r="E43" s="3">
-        <v>122900</v>
+        <v>121300</v>
       </c>
       <c r="F43" s="3">
-        <v>118000</v>
+        <v>125000</v>
       </c>
       <c r="G43" s="3">
-        <v>108800</v>
+        <v>120000</v>
       </c>
       <c r="H43" s="3">
-        <v>102300</v>
+        <v>110600</v>
       </c>
       <c r="I43" s="3">
-        <v>178300</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+        <v>104000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>181300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>230400</v>
+        <v>244100</v>
       </c>
       <c r="E44" s="3">
-        <v>204000</v>
+        <v>234200</v>
       </c>
       <c r="F44" s="3">
-        <v>217600</v>
+        <v>207500</v>
       </c>
       <c r="G44" s="3">
-        <v>204000</v>
+        <v>221300</v>
       </c>
       <c r="H44" s="3">
-        <v>214900</v>
+        <v>207400</v>
       </c>
       <c r="I44" s="3">
-        <v>210600</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+        <v>218500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>214100</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>11200</v>
-      </c>
       <c r="I45" s="3">
-        <v>10900</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+        <v>11400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>11100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1416500</v>
+        <v>1364100</v>
       </c>
       <c r="E46" s="3">
-        <v>1409000</v>
+        <v>1440200</v>
       </c>
       <c r="F46" s="3">
-        <v>1404500</v>
+        <v>1432600</v>
       </c>
       <c r="G46" s="3">
-        <v>769300</v>
+        <v>1428000</v>
       </c>
       <c r="H46" s="3">
-        <v>767800</v>
+        <v>782200</v>
       </c>
       <c r="I46" s="3">
-        <v>791800</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
+        <v>780700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>805100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>54200</v>
+        <v>53900</v>
       </c>
       <c r="E47" s="3">
-        <v>54700</v>
+        <v>55100</v>
       </c>
       <c r="F47" s="3">
-        <v>54800</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+        <v>55600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>55700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -1737,66 +1842,75 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>118000</v>
+        <v>151600</v>
       </c>
       <c r="E48" s="3">
-        <v>84300</v>
+        <v>120000</v>
       </c>
       <c r="F48" s="3">
-        <v>87300</v>
+        <v>85700</v>
       </c>
       <c r="G48" s="3">
-        <v>82700</v>
+        <v>88700</v>
       </c>
       <c r="H48" s="3">
-        <v>91000</v>
+        <v>84000</v>
       </c>
       <c r="I48" s="3">
-        <v>92300</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
+        <v>92500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>93800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="E49" s="3">
-        <v>13200</v>
+        <v>12600</v>
       </c>
       <c r="F49" s="3">
+        <v>13400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I49" s="3">
         <v>10800</v>
       </c>
-      <c r="G49" s="3">
-        <v>11200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>10600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>9900</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1970,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>47300</v>
+        <v>87400</v>
       </c>
       <c r="E52" s="3">
-        <v>28600</v>
+        <v>48100</v>
       </c>
       <c r="F52" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>30100</v>
+      </c>
+      <c r="H52" s="3">
         <v>29600</v>
       </c>
-      <c r="G52" s="3">
-        <v>29100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>29200</v>
-      </c>
       <c r="I52" s="3">
-        <v>25900</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+        <v>29700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>26300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1648400</v>
+        <v>1668900</v>
       </c>
       <c r="E54" s="3">
-        <v>1589800</v>
+        <v>1676000</v>
       </c>
       <c r="F54" s="3">
-        <v>1587100</v>
+        <v>1616500</v>
       </c>
       <c r="G54" s="3">
-        <v>892200</v>
+        <v>1613600</v>
       </c>
       <c r="H54" s="3">
-        <v>898700</v>
+        <v>907200</v>
       </c>
       <c r="I54" s="3">
-        <v>919700</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
+        <v>913700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>935100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2096,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>432600</v>
+        <v>470200</v>
       </c>
       <c r="E57" s="3">
-        <v>429500</v>
+        <v>97800</v>
       </c>
       <c r="F57" s="3">
-        <v>447200</v>
+        <v>436700</v>
       </c>
       <c r="G57" s="3">
-        <v>420200</v>
+        <v>454700</v>
       </c>
       <c r="H57" s="3">
-        <v>74400</v>
+        <v>427300</v>
       </c>
       <c r="I57" s="3">
-        <v>100600</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
+        <v>75700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>102300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>51600</v>
+        <v>41800</v>
       </c>
       <c r="E58" s="3">
-        <v>40100</v>
+        <v>52400</v>
       </c>
       <c r="F58" s="3">
-        <v>36500</v>
+        <v>40800</v>
       </c>
       <c r="G58" s="3">
-        <v>33500</v>
+        <v>37100</v>
       </c>
       <c r="H58" s="3">
-        <v>96300</v>
+        <v>34100</v>
       </c>
       <c r="I58" s="3">
-        <v>94100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+        <v>97900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>95700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52200</v>
+        <v>49900</v>
       </c>
       <c r="E59" s="3">
-        <v>55000</v>
+        <v>395000</v>
       </c>
       <c r="F59" s="3">
-        <v>57200</v>
+        <v>56000</v>
       </c>
       <c r="G59" s="3">
-        <v>47100</v>
+        <v>58200</v>
       </c>
       <c r="H59" s="3">
-        <v>338900</v>
+        <v>47900</v>
       </c>
       <c r="I59" s="3">
-        <v>349700</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+        <v>344600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>355500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>536300</v>
+        <v>561900</v>
       </c>
       <c r="E60" s="3">
-        <v>524600</v>
+        <v>545300</v>
       </c>
       <c r="F60" s="3">
-        <v>540900</v>
+        <v>533400</v>
       </c>
       <c r="G60" s="3">
-        <v>500800</v>
+        <v>550000</v>
       </c>
       <c r="H60" s="3">
-        <v>509600</v>
+        <v>509200</v>
       </c>
       <c r="I60" s="3">
-        <v>544400</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
+        <v>518200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>553500</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75500</v>
+        <v>71600</v>
       </c>
       <c r="E61" s="3">
-        <v>53300</v>
+        <v>76700</v>
       </c>
       <c r="F61" s="3">
-        <v>57100</v>
+        <v>54200</v>
       </c>
       <c r="G61" s="3">
-        <v>670900</v>
+        <v>58100</v>
       </c>
       <c r="H61" s="3">
-        <v>427400</v>
+        <v>682100</v>
       </c>
       <c r="I61" s="3">
-        <v>423400</v>
+        <v>434500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>430500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12300</v>
+        <v>11800</v>
       </c>
       <c r="E62" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="F62" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="G62" s="3">
-        <v>10200</v>
+        <v>14000</v>
       </c>
       <c r="H62" s="3">
-        <v>11400</v>
+        <v>10400</v>
       </c>
       <c r="I62" s="3">
-        <v>12300</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+        <v>11600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>12500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>623000</v>
+        <v>644600</v>
       </c>
       <c r="E66" s="3">
-        <v>590700</v>
+        <v>633500</v>
       </c>
       <c r="F66" s="3">
-        <v>613200</v>
+        <v>600600</v>
       </c>
       <c r="G66" s="3">
-        <v>1183200</v>
+        <v>623500</v>
       </c>
       <c r="H66" s="3">
-        <v>950500</v>
+        <v>1203000</v>
       </c>
       <c r="I66" s="3">
-        <v>980900</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
+        <v>966400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>997300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-251000</v>
+        <v>-225500</v>
       </c>
       <c r="E72" s="3">
-        <v>-277200</v>
+        <v>-255200</v>
       </c>
       <c r="F72" s="3">
-        <v>-302500</v>
+        <v>-281800</v>
       </c>
       <c r="G72" s="3">
-        <v>-316200</v>
+        <v>-307600</v>
       </c>
       <c r="H72" s="3">
-        <v>-76800</v>
+        <v>-321500</v>
       </c>
       <c r="I72" s="3">
-        <v>-82900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
+        <v>-78100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-84300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1025300</v>
+        <v>1024300</v>
       </c>
       <c r="E76" s="3">
-        <v>999200</v>
+        <v>1042500</v>
       </c>
       <c r="F76" s="3">
-        <v>973900</v>
+        <v>1015900</v>
       </c>
       <c r="G76" s="3">
-        <v>-291000</v>
+        <v>990200</v>
       </c>
       <c r="H76" s="3">
-        <v>-51800</v>
+        <v>-295800</v>
       </c>
       <c r="I76" s="3">
-        <v>-61200</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
+        <v>-52700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-62200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17700</v>
+        <v>23800</v>
       </c>
       <c r="E81" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="F81" s="3">
-        <v>3200</v>
+        <v>19100</v>
       </c>
       <c r="G81" s="3">
-        <v>-257500</v>
+        <v>3300</v>
       </c>
       <c r="H81" s="3">
-        <v>-7500</v>
+        <v>-261900</v>
       </c>
       <c r="I81" s="3">
-        <v>11800</v>
+        <v>-7600</v>
       </c>
       <c r="J81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-44600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2863,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3023,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2838,8 +3055,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3101,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3165,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3197,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3339,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3125,8 +3371,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3403,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3181,6 +3433,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,168 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>415500</v>
+        <v>437400</v>
       </c>
       <c r="E8" s="3">
-        <v>387100</v>
+        <v>418700</v>
       </c>
       <c r="F8" s="3">
-        <v>349000</v>
+        <v>390000</v>
       </c>
       <c r="G8" s="3">
-        <v>359700</v>
+        <v>351700</v>
       </c>
       <c r="H8" s="3">
-        <v>324400</v>
+        <v>362500</v>
       </c>
       <c r="I8" s="3">
-        <v>243200</v>
+        <v>326900</v>
       </c>
       <c r="J8" s="3">
+        <v>245000</v>
+      </c>
+      <c r="K8" s="3">
         <v>255700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>891900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>301500</v>
+        <v>301300</v>
       </c>
       <c r="E9" s="3">
-        <v>287000</v>
+        <v>303800</v>
       </c>
       <c r="F9" s="3">
-        <v>251000</v>
+        <v>289200</v>
       </c>
       <c r="G9" s="3">
-        <v>259100</v>
+        <v>252900</v>
       </c>
       <c r="H9" s="3">
-        <v>242600</v>
+        <v>261100</v>
       </c>
       <c r="I9" s="3">
-        <v>183800</v>
+        <v>244500</v>
       </c>
       <c r="J9" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K9" s="3">
         <v>172900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>611000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>279300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>114000</v>
+        <v>136100</v>
       </c>
       <c r="E10" s="3">
-        <v>100100</v>
+        <v>114900</v>
       </c>
       <c r="F10" s="3">
-        <v>98100</v>
+        <v>100800</v>
       </c>
       <c r="G10" s="3">
-        <v>100600</v>
+        <v>98800</v>
       </c>
       <c r="H10" s="3">
-        <v>81800</v>
+        <v>101400</v>
       </c>
       <c r="I10" s="3">
-        <v>59400</v>
+        <v>82400</v>
       </c>
       <c r="J10" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K10" s="3">
         <v>82700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>280900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,13 +907,16 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>1500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -911,20 +930,23 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>382100</v>
+        <v>397100</v>
       </c>
       <c r="E17" s="3">
-        <v>357700</v>
+        <v>385000</v>
       </c>
       <c r="F17" s="3">
-        <v>323800</v>
+        <v>360400</v>
       </c>
       <c r="G17" s="3">
-        <v>351200</v>
+        <v>326300</v>
       </c>
       <c r="H17" s="3">
-        <v>324700</v>
+        <v>353900</v>
       </c>
       <c r="I17" s="3">
-        <v>247800</v>
+        <v>327200</v>
       </c>
       <c r="J17" s="3">
+        <v>249700</v>
+      </c>
+      <c r="K17" s="3">
         <v>249400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>775500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33400</v>
+        <v>40300</v>
       </c>
       <c r="E18" s="3">
-        <v>29400</v>
+        <v>33700</v>
       </c>
       <c r="F18" s="3">
-        <v>25200</v>
+        <v>29600</v>
       </c>
       <c r="G18" s="3">
-        <v>8500</v>
+        <v>25400</v>
       </c>
       <c r="H18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-4600</v>
-      </c>
       <c r="J18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K18" s="3">
         <v>6200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>116500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,40 +1076,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-254100</v>
-      </c>
       <c r="I20" s="3">
-        <v>1100</v>
+        <v>-256100</v>
       </c>
       <c r="J20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>26900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-128300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-87300</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1096,20 +1132,23 @@
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
-        <v>7300</v>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J21" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K21" s="3">
         <v>64400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1128,84 +1167,93 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>32900</v>
+        <v>41000</v>
       </c>
       <c r="E23" s="3">
-        <v>29000</v>
+        <v>33100</v>
       </c>
       <c r="F23" s="3">
-        <v>25400</v>
+        <v>29200</v>
       </c>
       <c r="G23" s="3">
-        <v>9600</v>
+        <v>25600</v>
       </c>
       <c r="H23" s="3">
-        <v>-254500</v>
+        <v>9700</v>
       </c>
       <c r="I23" s="3">
+        <v>-256400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>8700</v>
       </c>
-      <c r="E24" s="3">
-        <v>11600</v>
-      </c>
       <c r="F24" s="3">
-        <v>7400</v>
+        <v>11700</v>
       </c>
       <c r="G24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H24" s="3">
         <v>6400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
-        <v>6500</v>
-      </c>
       <c r="J24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>24200</v>
+        <v>29000</v>
       </c>
       <c r="E26" s="3">
-        <v>17400</v>
+        <v>24400</v>
       </c>
       <c r="F26" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="G26" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-262400</v>
-      </c>
       <c r="I26" s="3">
-        <v>-11700</v>
+        <v>-264500</v>
       </c>
       <c r="J26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K26" s="3">
         <v>26600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23800</v>
+        <v>29100</v>
       </c>
       <c r="E27" s="3">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="F27" s="3">
-        <v>19100</v>
+        <v>18100</v>
       </c>
       <c r="G27" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-261900</v>
-      </c>
       <c r="I27" s="3">
-        <v>-12700</v>
+        <v>-263900</v>
       </c>
       <c r="J27" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K27" s="3">
         <v>27300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-51800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,19 +1389,22 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1352,20 +1412,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>5100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-15400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-9900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>254100</v>
-      </c>
       <c r="I32" s="3">
-        <v>-1100</v>
+        <v>256100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-26900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>128300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23800</v>
+        <v>29100</v>
       </c>
       <c r="E33" s="3">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="F33" s="3">
-        <v>19100</v>
+        <v>18100</v>
       </c>
       <c r="G33" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-261900</v>
-      </c>
       <c r="I33" s="3">
-        <v>-7600</v>
+        <v>-263900</v>
       </c>
       <c r="J33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K33" s="3">
         <v>12000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-44600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23800</v>
+        <v>29100</v>
       </c>
       <c r="E35" s="3">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="F35" s="3">
-        <v>19100</v>
+        <v>18100</v>
       </c>
       <c r="G35" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-261900</v>
-      </c>
       <c r="I35" s="3">
-        <v>-7600</v>
+        <v>-263900</v>
       </c>
       <c r="J35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K35" s="3">
         <v>12000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-44600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,217 +1706,236 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>928500</v>
+        <v>812700</v>
       </c>
       <c r="E41" s="3">
-        <v>1060200</v>
+        <v>935700</v>
       </c>
       <c r="F41" s="3">
-        <v>1084100</v>
+        <v>1068300</v>
       </c>
       <c r="G41" s="3">
-        <v>1070900</v>
+        <v>1092400</v>
       </c>
       <c r="H41" s="3">
-        <v>463600</v>
+        <v>1079200</v>
       </c>
       <c r="I41" s="3">
-        <v>446800</v>
+        <v>467100</v>
       </c>
       <c r="J41" s="3">
+        <v>450200</v>
+      </c>
+      <c r="K41" s="3">
         <v>377200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32100</v>
+        <v>32900</v>
       </c>
       <c r="E42" s="3">
-        <v>16100</v>
+        <v>32400</v>
       </c>
       <c r="F42" s="3">
+        <v>16200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>15900</v>
+      </c>
+      <c r="H42" s="3">
         <v>15800</v>
       </c>
-      <c r="G42" s="3">
-        <v>15700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>21300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>158900</v>
+        <v>175700</v>
       </c>
       <c r="E43" s="3">
-        <v>121300</v>
+        <v>160200</v>
       </c>
       <c r="F43" s="3">
-        <v>125000</v>
+        <v>122200</v>
       </c>
       <c r="G43" s="3">
-        <v>120000</v>
+        <v>125900</v>
       </c>
       <c r="H43" s="3">
-        <v>110600</v>
+        <v>120900</v>
       </c>
       <c r="I43" s="3">
-        <v>104000</v>
+        <v>111400</v>
       </c>
       <c r="J43" s="3">
+        <v>104800</v>
+      </c>
+      <c r="K43" s="3">
         <v>181300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>244100</v>
+        <v>214700</v>
       </c>
       <c r="E44" s="3">
-        <v>234200</v>
+        <v>246000</v>
       </c>
       <c r="F44" s="3">
-        <v>207500</v>
+        <v>236000</v>
       </c>
       <c r="G44" s="3">
-        <v>221300</v>
+        <v>209100</v>
       </c>
       <c r="H44" s="3">
-        <v>207400</v>
+        <v>223000</v>
       </c>
       <c r="I44" s="3">
-        <v>218500</v>
+        <v>209000</v>
       </c>
       <c r="J44" s="3">
+        <v>220200</v>
+      </c>
+      <c r="K44" s="3">
         <v>214100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>8400</v>
-      </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>8500</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1364100</v>
+        <v>1237100</v>
       </c>
       <c r="E46" s="3">
-        <v>1440200</v>
+        <v>1374500</v>
       </c>
       <c r="F46" s="3">
-        <v>1432600</v>
+        <v>1451200</v>
       </c>
       <c r="G46" s="3">
-        <v>1428000</v>
+        <v>1443600</v>
       </c>
       <c r="H46" s="3">
-        <v>782200</v>
+        <v>1439000</v>
       </c>
       <c r="I46" s="3">
-        <v>780700</v>
+        <v>788200</v>
       </c>
       <c r="J46" s="3">
+        <v>786700</v>
+      </c>
+      <c r="K46" s="3">
         <v>805100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>53900</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>55100</v>
+        <v>54300</v>
       </c>
       <c r="F47" s="3">
-        <v>55600</v>
+        <v>55500</v>
       </c>
       <c r="G47" s="3">
-        <v>55700</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+        <v>56000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>56200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -1845,72 +1949,81 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>151600</v>
+        <v>436700</v>
       </c>
       <c r="E48" s="3">
-        <v>120000</v>
+        <v>152800</v>
       </c>
       <c r="F48" s="3">
-        <v>85700</v>
+        <v>120900</v>
       </c>
       <c r="G48" s="3">
-        <v>88700</v>
+        <v>86400</v>
       </c>
       <c r="H48" s="3">
-        <v>84000</v>
+        <v>89400</v>
       </c>
       <c r="I48" s="3">
-        <v>92500</v>
+        <v>84700</v>
       </c>
       <c r="J48" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K48" s="3">
         <v>93800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="E49" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="F49" s="3">
-        <v>13400</v>
+        <v>12700</v>
       </c>
       <c r="G49" s="3">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="H49" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="I49" s="3">
-        <v>10800</v>
+        <v>11500</v>
       </c>
       <c r="J49" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K49" s="3">
         <v>9900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87400</v>
+        <v>57500</v>
       </c>
       <c r="E52" s="3">
-        <v>48100</v>
+        <v>88100</v>
       </c>
       <c r="F52" s="3">
-        <v>29100</v>
+        <v>48400</v>
       </c>
       <c r="G52" s="3">
-        <v>30100</v>
+        <v>29400</v>
       </c>
       <c r="H52" s="3">
-        <v>29600</v>
+        <v>30400</v>
       </c>
       <c r="I52" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="J52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K52" s="3">
         <v>26300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1668900</v>
+        <v>1742700</v>
       </c>
       <c r="E54" s="3">
-        <v>1676000</v>
+        <v>1681700</v>
       </c>
       <c r="F54" s="3">
-        <v>1616500</v>
+        <v>1688800</v>
       </c>
       <c r="G54" s="3">
-        <v>1613600</v>
+        <v>1628900</v>
       </c>
       <c r="H54" s="3">
-        <v>907200</v>
+        <v>1626000</v>
       </c>
       <c r="I54" s="3">
-        <v>913700</v>
+        <v>914100</v>
       </c>
       <c r="J54" s="3">
+        <v>920700</v>
+      </c>
+      <c r="K54" s="3">
         <v>935100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,200 +2226,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>470200</v>
+        <v>503100</v>
       </c>
       <c r="E57" s="3">
-        <v>97800</v>
+        <v>473800</v>
       </c>
       <c r="F57" s="3">
-        <v>436700</v>
+        <v>98600</v>
       </c>
       <c r="G57" s="3">
-        <v>454700</v>
+        <v>440000</v>
       </c>
       <c r="H57" s="3">
-        <v>427300</v>
+        <v>458200</v>
       </c>
       <c r="I57" s="3">
-        <v>75700</v>
+        <v>430500</v>
       </c>
       <c r="J57" s="3">
+        <v>76200</v>
+      </c>
+      <c r="K57" s="3">
         <v>102300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>41800</v>
+        <v>43200</v>
       </c>
       <c r="E58" s="3">
-        <v>52400</v>
+        <v>42100</v>
       </c>
       <c r="F58" s="3">
-        <v>40800</v>
+        <v>52800</v>
       </c>
       <c r="G58" s="3">
-        <v>37100</v>
+        <v>41100</v>
       </c>
       <c r="H58" s="3">
-        <v>34100</v>
+        <v>37400</v>
       </c>
       <c r="I58" s="3">
-        <v>97900</v>
+        <v>34300</v>
       </c>
       <c r="J58" s="3">
+        <v>98600</v>
+      </c>
+      <c r="K58" s="3">
         <v>95700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49900</v>
+        <v>57500</v>
       </c>
       <c r="E59" s="3">
-        <v>395000</v>
+        <v>50300</v>
       </c>
       <c r="F59" s="3">
-        <v>56000</v>
+        <v>398100</v>
       </c>
       <c r="G59" s="3">
-        <v>58200</v>
+        <v>56400</v>
       </c>
       <c r="H59" s="3">
-        <v>47900</v>
+        <v>58600</v>
       </c>
       <c r="I59" s="3">
-        <v>344600</v>
+        <v>48200</v>
       </c>
       <c r="J59" s="3">
+        <v>347200</v>
+      </c>
+      <c r="K59" s="3">
         <v>355500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>561900</v>
+        <v>603800</v>
       </c>
       <c r="E60" s="3">
-        <v>545300</v>
+        <v>566200</v>
       </c>
       <c r="F60" s="3">
-        <v>533400</v>
+        <v>549500</v>
       </c>
       <c r="G60" s="3">
-        <v>550000</v>
+        <v>537500</v>
       </c>
       <c r="H60" s="3">
-        <v>509200</v>
+        <v>554200</v>
       </c>
       <c r="I60" s="3">
-        <v>518200</v>
+        <v>513100</v>
       </c>
       <c r="J60" s="3">
+        <v>522100</v>
+      </c>
+      <c r="K60" s="3">
         <v>553500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71600</v>
+        <v>65900</v>
       </c>
       <c r="E61" s="3">
-        <v>76700</v>
+        <v>72100</v>
       </c>
       <c r="F61" s="3">
-        <v>54200</v>
+        <v>77300</v>
       </c>
       <c r="G61" s="3">
-        <v>58100</v>
+        <v>54700</v>
       </c>
       <c r="H61" s="3">
-        <v>682100</v>
+        <v>58500</v>
       </c>
       <c r="I61" s="3">
-        <v>434500</v>
+        <v>687300</v>
       </c>
       <c r="J61" s="3">
+        <v>437900</v>
+      </c>
+      <c r="K61" s="3">
         <v>430500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="E62" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K62" s="3">
         <v>12500</v>
       </c>
-      <c r="F62" s="3">
-        <v>13300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>14000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>10400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>11600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>12500</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>644600</v>
+        <v>680000</v>
       </c>
       <c r="E66" s="3">
-        <v>633500</v>
+        <v>649600</v>
       </c>
       <c r="F66" s="3">
-        <v>600600</v>
+        <v>638300</v>
       </c>
       <c r="G66" s="3">
-        <v>623500</v>
+        <v>605200</v>
       </c>
       <c r="H66" s="3">
-        <v>1203000</v>
+        <v>628200</v>
       </c>
       <c r="I66" s="3">
-        <v>966400</v>
+        <v>1212200</v>
       </c>
       <c r="J66" s="3">
+        <v>973800</v>
+      </c>
+      <c r="K66" s="3">
         <v>997300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-225500</v>
+        <v>-196600</v>
       </c>
       <c r="E72" s="3">
-        <v>-255200</v>
+        <v>-227200</v>
       </c>
       <c r="F72" s="3">
-        <v>-281800</v>
+        <v>-257200</v>
       </c>
       <c r="G72" s="3">
-        <v>-307600</v>
+        <v>-284000</v>
       </c>
       <c r="H72" s="3">
-        <v>-321500</v>
+        <v>-309900</v>
       </c>
       <c r="I72" s="3">
-        <v>-78100</v>
+        <v>-324000</v>
       </c>
       <c r="J72" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-84300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1024300</v>
+        <v>1062700</v>
       </c>
       <c r="E76" s="3">
-        <v>1042500</v>
+        <v>1032100</v>
       </c>
       <c r="F76" s="3">
-        <v>1015900</v>
+        <v>1050500</v>
       </c>
       <c r="G76" s="3">
-        <v>990200</v>
+        <v>1023700</v>
       </c>
       <c r="H76" s="3">
-        <v>-295800</v>
+        <v>997800</v>
       </c>
       <c r="I76" s="3">
-        <v>-52700</v>
+        <v>-298100</v>
       </c>
       <c r="J76" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-62200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23800</v>
+        <v>29100</v>
       </c>
       <c r="E81" s="3">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="F81" s="3">
-        <v>19100</v>
+        <v>18100</v>
       </c>
       <c r="G81" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-261900</v>
-      </c>
       <c r="I81" s="3">
-        <v>-7600</v>
+        <v>-263900</v>
       </c>
       <c r="J81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K81" s="3">
         <v>12000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-44600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2866,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,8 +3239,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3058,8 +3274,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3104,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3200,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3374,8 +3619,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3406,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3436,6 +3687,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>437400</v>
+        <v>408600</v>
       </c>
       <c r="E8" s="3">
-        <v>418700</v>
+        <v>391100</v>
       </c>
       <c r="F8" s="3">
-        <v>390000</v>
+        <v>364300</v>
       </c>
       <c r="G8" s="3">
-        <v>351700</v>
+        <v>328500</v>
       </c>
       <c r="H8" s="3">
-        <v>362500</v>
+        <v>338600</v>
       </c>
       <c r="I8" s="3">
-        <v>326900</v>
+        <v>305300</v>
       </c>
       <c r="J8" s="3">
-        <v>245000</v>
+        <v>228900</v>
       </c>
       <c r="K8" s="3">
         <v>255700</v>
@@ -761,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>301300</v>
+        <v>281400</v>
       </c>
       <c r="E9" s="3">
-        <v>303800</v>
+        <v>283800</v>
       </c>
       <c r="F9" s="3">
-        <v>289200</v>
+        <v>270200</v>
       </c>
       <c r="G9" s="3">
-        <v>252900</v>
+        <v>236200</v>
       </c>
       <c r="H9" s="3">
-        <v>261100</v>
+        <v>243900</v>
       </c>
       <c r="I9" s="3">
-        <v>244500</v>
+        <v>228400</v>
       </c>
       <c r="J9" s="3">
-        <v>185200</v>
+        <v>173000</v>
       </c>
       <c r="K9" s="3">
         <v>172900</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>136100</v>
+        <v>127200</v>
       </c>
       <c r="E10" s="3">
-        <v>114900</v>
+        <v>107300</v>
       </c>
       <c r="F10" s="3">
-        <v>100800</v>
+        <v>94200</v>
       </c>
       <c r="G10" s="3">
-        <v>98800</v>
+        <v>92300</v>
       </c>
       <c r="H10" s="3">
-        <v>101400</v>
+        <v>94700</v>
       </c>
       <c r="I10" s="3">
-        <v>82400</v>
+        <v>77000</v>
       </c>
       <c r="J10" s="3">
-        <v>59900</v>
+        <v>55900</v>
       </c>
       <c r="K10" s="3">
         <v>82700</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -934,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="K14" s="3">
         <v>2800</v>
@@ -998,25 +998,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>397100</v>
+        <v>371000</v>
       </c>
       <c r="E17" s="3">
-        <v>385000</v>
+        <v>359600</v>
       </c>
       <c r="F17" s="3">
-        <v>360400</v>
+        <v>336600</v>
       </c>
       <c r="G17" s="3">
-        <v>326300</v>
+        <v>304800</v>
       </c>
       <c r="H17" s="3">
-        <v>353900</v>
+        <v>330600</v>
       </c>
       <c r="I17" s="3">
-        <v>327200</v>
+        <v>305700</v>
       </c>
       <c r="J17" s="3">
-        <v>249700</v>
+        <v>233300</v>
       </c>
       <c r="K17" s="3">
         <v>249400</v>
@@ -1033,25 +1033,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>40300</v>
+        <v>37600</v>
       </c>
       <c r="E18" s="3">
-        <v>33700</v>
+        <v>31500</v>
       </c>
       <c r="F18" s="3">
-        <v>29600</v>
+        <v>27700</v>
       </c>
       <c r="G18" s="3">
-        <v>25400</v>
+        <v>23700</v>
       </c>
       <c r="H18" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="K18" s="3">
         <v>6200</v>
@@ -1086,7 +1086,7 @@
         <v>700</v>
       </c>
       <c r="E20" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
         <v>-400</v>
@@ -1098,10 +1098,10 @@
         <v>1100</v>
       </c>
       <c r="I20" s="3">
-        <v>-256100</v>
+        <v>-239200</v>
       </c>
       <c r="J20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K20" s="3">
         <v>26900</v>
@@ -1136,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="K21" s="3">
         <v>64400</v>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K22" s="3">
         <v>3200</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41000</v>
+        <v>38300</v>
       </c>
       <c r="E23" s="3">
-        <v>33100</v>
+        <v>30900</v>
       </c>
       <c r="F23" s="3">
-        <v>29200</v>
+        <v>27300</v>
       </c>
       <c r="G23" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="H23" s="3">
-        <v>9700</v>
+        <v>9000</v>
       </c>
       <c r="I23" s="3">
-        <v>-256400</v>
+        <v>-239500</v>
       </c>
       <c r="J23" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="K23" s="3">
         <v>29900</v>
@@ -1223,25 +1223,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="E24" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="F24" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="G24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I24" s="3">
         <v>7500</v>
       </c>
-      <c r="H24" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>8000</v>
-      </c>
       <c r="J24" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="K24" s="3">
         <v>3300</v>
@@ -1293,25 +1293,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>29000</v>
+        <v>27100</v>
       </c>
       <c r="E26" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="F26" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="G26" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="H26" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I26" s="3">
-        <v>-264500</v>
+        <v>-247000</v>
       </c>
       <c r="J26" s="3">
-        <v>-11800</v>
+        <v>-11000</v>
       </c>
       <c r="K26" s="3">
         <v>26600</v>
@@ -1328,25 +1328,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>29100</v>
+        <v>27200</v>
       </c>
       <c r="E27" s="3">
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="F27" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="G27" s="3">
-        <v>19200</v>
+        <v>18000</v>
       </c>
       <c r="H27" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I27" s="3">
-        <v>-263900</v>
+        <v>-246500</v>
       </c>
       <c r="J27" s="3">
-        <v>-12800</v>
+        <v>-12000</v>
       </c>
       <c r="K27" s="3">
         <v>27300</v>
@@ -1416,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="K29" s="3">
         <v>-15400</v>
@@ -1506,7 +1506,7 @@
         <v>-700</v>
       </c>
       <c r="E32" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
         <v>400</v>
@@ -1518,10 +1518,10 @@
         <v>-1100</v>
       </c>
       <c r="I32" s="3">
-        <v>256100</v>
+        <v>239200</v>
       </c>
       <c r="J32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K32" s="3">
         <v>-26900</v>
@@ -1538,25 +1538,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29100</v>
+        <v>27200</v>
       </c>
       <c r="E33" s="3">
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="F33" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="G33" s="3">
-        <v>19200</v>
+        <v>18000</v>
       </c>
       <c r="H33" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I33" s="3">
-        <v>-263900</v>
+        <v>-246500</v>
       </c>
       <c r="J33" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="K33" s="3">
         <v>12000</v>
@@ -1608,25 +1608,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29100</v>
+        <v>27200</v>
       </c>
       <c r="E35" s="3">
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="F35" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="G35" s="3">
-        <v>19200</v>
+        <v>18000</v>
       </c>
       <c r="H35" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I35" s="3">
-        <v>-263900</v>
+        <v>-246500</v>
       </c>
       <c r="J35" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="K35" s="3">
         <v>12000</v>
@@ -1713,25 +1713,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>812700</v>
+        <v>759100</v>
       </c>
       <c r="E41" s="3">
-        <v>935700</v>
+        <v>874000</v>
       </c>
       <c r="F41" s="3">
-        <v>1068300</v>
+        <v>997900</v>
       </c>
       <c r="G41" s="3">
-        <v>1092400</v>
+        <v>1020400</v>
       </c>
       <c r="H41" s="3">
-        <v>1079200</v>
+        <v>1008000</v>
       </c>
       <c r="I41" s="3">
-        <v>467100</v>
+        <v>436300</v>
       </c>
       <c r="J41" s="3">
-        <v>450200</v>
+        <v>420600</v>
       </c>
       <c r="K41" s="3">
         <v>377200</v>
@@ -1748,19 +1748,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32900</v>
+        <v>30700</v>
       </c>
       <c r="E42" s="3">
-        <v>32400</v>
+        <v>30300</v>
       </c>
       <c r="F42" s="3">
-        <v>16200</v>
+        <v>15200</v>
       </c>
       <c r="G42" s="3">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="H42" s="3">
-        <v>15800</v>
+        <v>14800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1783,25 +1783,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>175700</v>
+        <v>164100</v>
       </c>
       <c r="E43" s="3">
-        <v>160200</v>
+        <v>149600</v>
       </c>
       <c r="F43" s="3">
-        <v>122200</v>
+        <v>114100</v>
       </c>
       <c r="G43" s="3">
-        <v>125900</v>
+        <v>117600</v>
       </c>
       <c r="H43" s="3">
-        <v>120900</v>
+        <v>112900</v>
       </c>
       <c r="I43" s="3">
-        <v>111400</v>
+        <v>104100</v>
       </c>
       <c r="J43" s="3">
-        <v>104800</v>
+        <v>97900</v>
       </c>
       <c r="K43" s="3">
         <v>181300</v>
@@ -1818,25 +1818,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>214700</v>
+        <v>200600</v>
       </c>
       <c r="E44" s="3">
-        <v>246000</v>
+        <v>229700</v>
       </c>
       <c r="F44" s="3">
-        <v>236000</v>
+        <v>220500</v>
       </c>
       <c r="G44" s="3">
-        <v>209100</v>
+        <v>195300</v>
       </c>
       <c r="H44" s="3">
-        <v>223000</v>
+        <v>208300</v>
       </c>
       <c r="I44" s="3">
-        <v>209000</v>
+        <v>195200</v>
       </c>
       <c r="J44" s="3">
-        <v>220200</v>
+        <v>205700</v>
       </c>
       <c r="K44" s="3">
         <v>214100</v>
@@ -1853,16 +1853,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -1871,7 +1871,7 @@
         <v>600</v>
       </c>
       <c r="J45" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="K45" s="3">
         <v>11100</v>
@@ -1888,25 +1888,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1237100</v>
+        <v>1155500</v>
       </c>
       <c r="E46" s="3">
-        <v>1374500</v>
+        <v>1283900</v>
       </c>
       <c r="F46" s="3">
-        <v>1451200</v>
+        <v>1355600</v>
       </c>
       <c r="G46" s="3">
-        <v>1443600</v>
+        <v>1348400</v>
       </c>
       <c r="H46" s="3">
-        <v>1439000</v>
+        <v>1344100</v>
       </c>
       <c r="I46" s="3">
-        <v>788200</v>
+        <v>736200</v>
       </c>
       <c r="J46" s="3">
-        <v>786700</v>
+        <v>734800</v>
       </c>
       <c r="K46" s="3">
         <v>805100</v>
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>54300</v>
+        <v>50700</v>
       </c>
       <c r="F47" s="3">
-        <v>55500</v>
+        <v>51900</v>
       </c>
       <c r="G47" s="3">
-        <v>56000</v>
+        <v>52300</v>
       </c>
       <c r="H47" s="3">
-        <v>56200</v>
+        <v>52500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -1958,25 +1958,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>436700</v>
+        <v>407900</v>
       </c>
       <c r="E48" s="3">
-        <v>152800</v>
+        <v>142700</v>
       </c>
       <c r="F48" s="3">
-        <v>120900</v>
+        <v>112900</v>
       </c>
       <c r="G48" s="3">
-        <v>86400</v>
+        <v>80700</v>
       </c>
       <c r="H48" s="3">
-        <v>89400</v>
+        <v>83500</v>
       </c>
       <c r="I48" s="3">
-        <v>84700</v>
+        <v>79100</v>
       </c>
       <c r="J48" s="3">
-        <v>93200</v>
+        <v>87100</v>
       </c>
       <c r="K48" s="3">
         <v>93800</v>
@@ -1993,25 +1993,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="E49" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="F49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G49" s="3">
         <v>12700</v>
       </c>
-      <c r="G49" s="3">
-        <v>13500</v>
-      </c>
       <c r="H49" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="I49" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="J49" s="3">
-        <v>10900</v>
+        <v>10200</v>
       </c>
       <c r="K49" s="3">
         <v>9900</v>
@@ -2098,25 +2098,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>57500</v>
+        <v>53700</v>
       </c>
       <c r="E52" s="3">
-        <v>88100</v>
+        <v>82300</v>
       </c>
       <c r="F52" s="3">
-        <v>48400</v>
+        <v>45200</v>
       </c>
       <c r="G52" s="3">
-        <v>29400</v>
+        <v>27400</v>
       </c>
       <c r="H52" s="3">
-        <v>30400</v>
+        <v>28400</v>
       </c>
       <c r="I52" s="3">
-        <v>29800</v>
+        <v>27800</v>
       </c>
       <c r="J52" s="3">
-        <v>29900</v>
+        <v>27900</v>
       </c>
       <c r="K52" s="3">
         <v>26300</v>
@@ -2168,25 +2168,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1742700</v>
+        <v>1627900</v>
       </c>
       <c r="E54" s="3">
-        <v>1681700</v>
+        <v>1570800</v>
       </c>
       <c r="F54" s="3">
-        <v>1688800</v>
+        <v>1577500</v>
       </c>
       <c r="G54" s="3">
-        <v>1628900</v>
+        <v>1521500</v>
       </c>
       <c r="H54" s="3">
-        <v>1626000</v>
+        <v>1518800</v>
       </c>
       <c r="I54" s="3">
-        <v>914100</v>
+        <v>853900</v>
       </c>
       <c r="J54" s="3">
-        <v>920700</v>
+        <v>860000</v>
       </c>
       <c r="K54" s="3">
         <v>935100</v>
@@ -2233,25 +2233,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>503100</v>
+        <v>469900</v>
       </c>
       <c r="E57" s="3">
-        <v>473800</v>
+        <v>442600</v>
       </c>
       <c r="F57" s="3">
-        <v>98600</v>
+        <v>92100</v>
       </c>
       <c r="G57" s="3">
-        <v>440000</v>
+        <v>411000</v>
       </c>
       <c r="H57" s="3">
-        <v>458200</v>
+        <v>428000</v>
       </c>
       <c r="I57" s="3">
-        <v>430500</v>
+        <v>402200</v>
       </c>
       <c r="J57" s="3">
-        <v>76200</v>
+        <v>71200</v>
       </c>
       <c r="K57" s="3">
         <v>102300</v>
@@ -2268,25 +2268,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43200</v>
+        <v>40300</v>
       </c>
       <c r="E58" s="3">
-        <v>42100</v>
+        <v>39300</v>
       </c>
       <c r="F58" s="3">
-        <v>52800</v>
+        <v>49400</v>
       </c>
       <c r="G58" s="3">
-        <v>41100</v>
+        <v>38400</v>
       </c>
       <c r="H58" s="3">
-        <v>37400</v>
+        <v>34900</v>
       </c>
       <c r="I58" s="3">
-        <v>34300</v>
+        <v>32100</v>
       </c>
       <c r="J58" s="3">
-        <v>98600</v>
+        <v>92100</v>
       </c>
       <c r="K58" s="3">
         <v>95700</v>
@@ -2303,25 +2303,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>57500</v>
+        <v>53700</v>
       </c>
       <c r="E59" s="3">
-        <v>50300</v>
+        <v>47000</v>
       </c>
       <c r="F59" s="3">
-        <v>398100</v>
+        <v>371800</v>
       </c>
       <c r="G59" s="3">
-        <v>56400</v>
+        <v>52700</v>
       </c>
       <c r="H59" s="3">
-        <v>58600</v>
+        <v>54800</v>
       </c>
       <c r="I59" s="3">
-        <v>48200</v>
+        <v>45100</v>
       </c>
       <c r="J59" s="3">
-        <v>347200</v>
+        <v>324400</v>
       </c>
       <c r="K59" s="3">
         <v>355500</v>
@@ -2338,25 +2338,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>603800</v>
+        <v>564000</v>
       </c>
       <c r="E60" s="3">
-        <v>566200</v>
+        <v>528900</v>
       </c>
       <c r="F60" s="3">
-        <v>549500</v>
+        <v>513200</v>
       </c>
       <c r="G60" s="3">
-        <v>537500</v>
+        <v>502000</v>
       </c>
       <c r="H60" s="3">
-        <v>554200</v>
+        <v>517600</v>
       </c>
       <c r="I60" s="3">
-        <v>513100</v>
+        <v>479300</v>
       </c>
       <c r="J60" s="3">
-        <v>522100</v>
+        <v>487700</v>
       </c>
       <c r="K60" s="3">
         <v>553500</v>
@@ -2373,25 +2373,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65900</v>
+        <v>61500</v>
       </c>
       <c r="E61" s="3">
-        <v>72100</v>
+        <v>67400</v>
       </c>
       <c r="F61" s="3">
-        <v>77300</v>
+        <v>72200</v>
       </c>
       <c r="G61" s="3">
+        <v>51000</v>
+      </c>
+      <c r="H61" s="3">
         <v>54700</v>
       </c>
-      <c r="H61" s="3">
-        <v>58500</v>
-      </c>
       <c r="I61" s="3">
-        <v>687300</v>
+        <v>642000</v>
       </c>
       <c r="J61" s="3">
-        <v>437900</v>
+        <v>409000</v>
       </c>
       <c r="K61" s="3">
         <v>430500</v>
@@ -2408,25 +2408,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E62" s="3">
         <v>11100</v>
       </c>
-      <c r="E62" s="3">
-        <v>11900</v>
-      </c>
       <c r="F62" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="G62" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="H62" s="3">
-        <v>14100</v>
+        <v>13100</v>
       </c>
       <c r="I62" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="J62" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="K62" s="3">
         <v>12500</v>
@@ -2548,25 +2548,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>680000</v>
+        <v>635200</v>
       </c>
       <c r="E66" s="3">
-        <v>649600</v>
+        <v>606800</v>
       </c>
       <c r="F66" s="3">
-        <v>638300</v>
+        <v>596200</v>
       </c>
       <c r="G66" s="3">
-        <v>605200</v>
+        <v>565300</v>
       </c>
       <c r="H66" s="3">
-        <v>628200</v>
+        <v>586800</v>
       </c>
       <c r="I66" s="3">
-        <v>1212200</v>
+        <v>1132300</v>
       </c>
       <c r="J66" s="3">
-        <v>973800</v>
+        <v>909600</v>
       </c>
       <c r="K66" s="3">
         <v>997300</v>
@@ -2738,25 +2738,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-196600</v>
+        <v>-183700</v>
       </c>
       <c r="E72" s="3">
-        <v>-227200</v>
+        <v>-212200</v>
       </c>
       <c r="F72" s="3">
-        <v>-257200</v>
+        <v>-240200</v>
       </c>
       <c r="G72" s="3">
-        <v>-284000</v>
+        <v>-265300</v>
       </c>
       <c r="H72" s="3">
-        <v>-309900</v>
+        <v>-289500</v>
       </c>
       <c r="I72" s="3">
-        <v>-324000</v>
+        <v>-302600</v>
       </c>
       <c r="J72" s="3">
-        <v>-78700</v>
+        <v>-73500</v>
       </c>
       <c r="K72" s="3">
         <v>-84300</v>
@@ -2878,25 +2878,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1062700</v>
+        <v>992700</v>
       </c>
       <c r="E76" s="3">
-        <v>1032100</v>
+        <v>964100</v>
       </c>
       <c r="F76" s="3">
-        <v>1050500</v>
+        <v>981300</v>
       </c>
       <c r="G76" s="3">
-        <v>1023700</v>
+        <v>956200</v>
       </c>
       <c r="H76" s="3">
-        <v>997800</v>
+        <v>932000</v>
       </c>
       <c r="I76" s="3">
-        <v>-298100</v>
+        <v>-278500</v>
       </c>
       <c r="J76" s="3">
-        <v>-53100</v>
+        <v>-49600</v>
       </c>
       <c r="K76" s="3">
         <v>-62200</v>
@@ -2988,25 +2988,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29100</v>
+        <v>27200</v>
       </c>
       <c r="E81" s="3">
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="F81" s="3">
-        <v>18100</v>
+        <v>16900</v>
       </c>
       <c r="G81" s="3">
-        <v>19200</v>
+        <v>18000</v>
       </c>
       <c r="H81" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I81" s="3">
-        <v>-263900</v>
+        <v>-246500</v>
       </c>
       <c r="J81" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="K81" s="3">
         <v>12000</v>

--- a/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>408600</v>
+        <v>338500</v>
       </c>
       <c r="E8" s="3">
-        <v>391100</v>
+        <v>341900</v>
       </c>
       <c r="F8" s="3">
-        <v>364300</v>
+        <v>404900</v>
       </c>
       <c r="G8" s="3">
-        <v>328500</v>
+        <v>387600</v>
       </c>
       <c r="H8" s="3">
-        <v>338600</v>
+        <v>361000</v>
       </c>
       <c r="I8" s="3">
+        <v>325600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>335500</v>
+      </c>
+      <c r="K8" s="3">
         <v>305300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>228900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>255700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>891900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>281400</v>
+        <v>225700</v>
       </c>
       <c r="E9" s="3">
-        <v>283800</v>
+        <v>238700</v>
       </c>
       <c r="F9" s="3">
-        <v>270200</v>
+        <v>278900</v>
       </c>
       <c r="G9" s="3">
-        <v>236200</v>
+        <v>281200</v>
       </c>
       <c r="H9" s="3">
-        <v>243900</v>
+        <v>267700</v>
       </c>
       <c r="I9" s="3">
+        <v>234100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>241700</v>
+      </c>
+      <c r="K9" s="3">
         <v>228400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>173000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>172900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>611000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>279300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>127200</v>
+        <v>112700</v>
       </c>
       <c r="E10" s="3">
-        <v>107300</v>
+        <v>103200</v>
       </c>
       <c r="F10" s="3">
-        <v>94200</v>
+        <v>126000</v>
       </c>
       <c r="G10" s="3">
-        <v>92300</v>
+        <v>106400</v>
       </c>
       <c r="H10" s="3">
-        <v>94700</v>
+        <v>93300</v>
       </c>
       <c r="I10" s="3">
+        <v>91500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>93900</v>
+      </c>
+      <c r="K10" s="3">
         <v>77000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>55900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>82700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>280900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,20 +944,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -933,20 +973,26 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>371000</v>
+        <v>298700</v>
       </c>
       <c r="E17" s="3">
-        <v>359600</v>
+        <v>321300</v>
       </c>
       <c r="F17" s="3">
-        <v>336600</v>
+        <v>367600</v>
       </c>
       <c r="G17" s="3">
-        <v>304800</v>
+        <v>356400</v>
       </c>
       <c r="H17" s="3">
-        <v>330600</v>
+        <v>333600</v>
       </c>
       <c r="I17" s="3">
+        <v>302000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>327600</v>
+      </c>
+      <c r="K17" s="3">
         <v>305700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>233300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>249400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>775500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37600</v>
+        <v>39700</v>
       </c>
       <c r="E18" s="3">
-        <v>31500</v>
+        <v>20600</v>
       </c>
       <c r="F18" s="3">
-        <v>27700</v>
+        <v>37300</v>
       </c>
       <c r="G18" s="3">
-        <v>23700</v>
+        <v>31200</v>
       </c>
       <c r="H18" s="3">
-        <v>8000</v>
+        <v>27400</v>
       </c>
       <c r="I18" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>116500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1143,51 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-239200</v>
+      </c>
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
-        <v>-239200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>26900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-128300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-87300</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1135,20 +1209,26 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>64400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1170,90 +1250,108 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38300</v>
+        <v>42500</v>
       </c>
       <c r="E23" s="3">
-        <v>30900</v>
+        <v>21300</v>
       </c>
       <c r="F23" s="3">
-        <v>27300</v>
+        <v>38000</v>
       </c>
       <c r="G23" s="3">
-        <v>23900</v>
+        <v>30600</v>
       </c>
       <c r="H23" s="3">
+        <v>27100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J23" s="3">
         <v>9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-239500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>29900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-37900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11200</v>
+        <v>12100</v>
       </c>
       <c r="E24" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="F24" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="G24" s="3">
-        <v>7000</v>
+        <v>8100</v>
       </c>
       <c r="H24" s="3">
-        <v>6000</v>
+        <v>10800</v>
       </c>
       <c r="I24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K24" s="3">
         <v>7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>22800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27100</v>
+        <v>30400</v>
       </c>
       <c r="E26" s="3">
-        <v>22800</v>
+        <v>13500</v>
       </c>
       <c r="F26" s="3">
-        <v>16400</v>
+        <v>26900</v>
       </c>
       <c r="G26" s="3">
-        <v>16900</v>
+        <v>22600</v>
       </c>
       <c r="H26" s="3">
-        <v>3100</v>
+        <v>16200</v>
       </c>
       <c r="I26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-247000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>26600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-34700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27200</v>
+        <v>29900</v>
       </c>
       <c r="E27" s="3">
-        <v>22400</v>
+        <v>14100</v>
       </c>
       <c r="F27" s="3">
-        <v>16900</v>
+        <v>27000</v>
       </c>
       <c r="G27" s="3">
-        <v>18000</v>
+        <v>22200</v>
       </c>
       <c r="H27" s="3">
-        <v>3100</v>
+        <v>16800</v>
       </c>
       <c r="I27" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-246500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-12000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>27300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-34700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-51800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1403,32 +1525,38 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>4800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-15400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-9900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>239200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
-        <v>239200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-26900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>128300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27200</v>
+        <v>29900</v>
       </c>
       <c r="E33" s="3">
-        <v>22400</v>
+        <v>14100</v>
       </c>
       <c r="F33" s="3">
-        <v>16900</v>
+        <v>27000</v>
       </c>
       <c r="G33" s="3">
-        <v>18000</v>
+        <v>22200</v>
       </c>
       <c r="H33" s="3">
-        <v>3100</v>
+        <v>16800</v>
       </c>
       <c r="I33" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-246500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-44600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27200</v>
+        <v>29900</v>
       </c>
       <c r="E35" s="3">
-        <v>22400</v>
+        <v>14100</v>
       </c>
       <c r="F35" s="3">
-        <v>16900</v>
+        <v>27000</v>
       </c>
       <c r="G35" s="3">
-        <v>18000</v>
+        <v>22200</v>
       </c>
       <c r="H35" s="3">
-        <v>3100</v>
+        <v>16800</v>
       </c>
       <c r="I35" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-246500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-44600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,241 +1879,279 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>759100</v>
+        <v>781000</v>
       </c>
       <c r="E41" s="3">
-        <v>874000</v>
+        <v>769600</v>
       </c>
       <c r="F41" s="3">
-        <v>997900</v>
+        <v>752300</v>
       </c>
       <c r="G41" s="3">
-        <v>1020400</v>
+        <v>866100</v>
       </c>
       <c r="H41" s="3">
-        <v>1008000</v>
+        <v>988900</v>
       </c>
       <c r="I41" s="3">
+        <v>1011200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>998900</v>
+      </c>
+      <c r="K41" s="3">
         <v>436300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>420600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>377200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30700</v>
+        <v>65300</v>
       </c>
       <c r="E42" s="3">
-        <v>30300</v>
+        <v>30200</v>
       </c>
       <c r="F42" s="3">
-        <v>15200</v>
+        <v>30400</v>
       </c>
       <c r="G42" s="3">
-        <v>14900</v>
+        <v>30000</v>
       </c>
       <c r="H42" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I42" s="3">
         <v>14800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>21300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>164100</v>
+        <v>154200</v>
       </c>
       <c r="E43" s="3">
-        <v>149600</v>
+        <v>154900</v>
       </c>
       <c r="F43" s="3">
-        <v>114100</v>
+        <v>162600</v>
       </c>
       <c r="G43" s="3">
-        <v>117600</v>
+        <v>148200</v>
       </c>
       <c r="H43" s="3">
-        <v>112900</v>
+        <v>113100</v>
       </c>
       <c r="I43" s="3">
+        <v>116500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K43" s="3">
         <v>104100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>97900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>181300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200600</v>
+        <v>173500</v>
       </c>
       <c r="E44" s="3">
-        <v>229700</v>
+        <v>169800</v>
       </c>
       <c r="F44" s="3">
-        <v>220500</v>
+        <v>198700</v>
       </c>
       <c r="G44" s="3">
-        <v>195300</v>
+        <v>227700</v>
       </c>
       <c r="H44" s="3">
-        <v>208300</v>
+        <v>218500</v>
       </c>
       <c r="I44" s="3">
+        <v>193500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>206400</v>
+      </c>
+      <c r="K44" s="3">
         <v>195200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>205700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>214100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1155500</v>
+        <v>1178800</v>
       </c>
       <c r="E46" s="3">
-        <v>1283900</v>
+        <v>1125900</v>
       </c>
       <c r="F46" s="3">
-        <v>1355600</v>
+        <v>1145100</v>
       </c>
       <c r="G46" s="3">
-        <v>1348400</v>
+        <v>1272300</v>
       </c>
       <c r="H46" s="3">
-        <v>1344100</v>
+        <v>1343300</v>
       </c>
       <c r="I46" s="3">
+        <v>1336200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="K46" s="3">
         <v>736200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>734800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>805100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>50700</v>
+        <v>1500</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>50300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>51400</v>
+      </c>
+      <c r="I47" s="3">
         <v>51900</v>
       </c>
-      <c r="G47" s="3">
-        <v>52300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>52500</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>52000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -1952,78 +2162,96 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>407900</v>
+        <v>403400</v>
       </c>
       <c r="E48" s="3">
-        <v>142700</v>
+        <v>401300</v>
       </c>
       <c r="F48" s="3">
-        <v>112900</v>
+        <v>404200</v>
       </c>
       <c r="G48" s="3">
-        <v>80700</v>
+        <v>141400</v>
       </c>
       <c r="H48" s="3">
-        <v>83500</v>
+        <v>111900</v>
       </c>
       <c r="I48" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K48" s="3">
         <v>79100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>87100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>93800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10800</v>
+        <v>9100</v>
       </c>
       <c r="E49" s="3">
-        <v>11200</v>
+        <v>9800</v>
       </c>
       <c r="F49" s="3">
-        <v>11900</v>
+        <v>10700</v>
       </c>
       <c r="G49" s="3">
-        <v>12700</v>
+        <v>11100</v>
       </c>
       <c r="H49" s="3">
-        <v>10400</v>
+        <v>11800</v>
       </c>
       <c r="I49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K49" s="3">
         <v>10700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>10200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>9900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2326,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>53700</v>
+        <v>52000</v>
       </c>
       <c r="E52" s="3">
-        <v>82300</v>
+        <v>53200</v>
       </c>
       <c r="F52" s="3">
-        <v>45200</v>
+        <v>53200</v>
       </c>
       <c r="G52" s="3">
-        <v>27400</v>
+        <v>81600</v>
       </c>
       <c r="H52" s="3">
-        <v>28400</v>
+        <v>44800</v>
       </c>
       <c r="I52" s="3">
+        <v>27200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K52" s="3">
         <v>27800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>27900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>26300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1627900</v>
+        <v>1647500</v>
       </c>
       <c r="E54" s="3">
-        <v>1570800</v>
+        <v>1591600</v>
       </c>
       <c r="F54" s="3">
-        <v>1577500</v>
+        <v>1613200</v>
       </c>
       <c r="G54" s="3">
-        <v>1521500</v>
+        <v>1556700</v>
       </c>
       <c r="H54" s="3">
-        <v>1518800</v>
+        <v>1563300</v>
       </c>
       <c r="I54" s="3">
+        <v>1507800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1505100</v>
+      </c>
+      <c r="K54" s="3">
         <v>853900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>860000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>935100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2487,256 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>469900</v>
+        <v>448700</v>
       </c>
       <c r="E57" s="3">
-        <v>442600</v>
+        <v>435100</v>
       </c>
       <c r="F57" s="3">
-        <v>92100</v>
+        <v>465700</v>
       </c>
       <c r="G57" s="3">
-        <v>411000</v>
+        <v>438600</v>
       </c>
       <c r="H57" s="3">
-        <v>428000</v>
+        <v>91200</v>
       </c>
       <c r="I57" s="3">
+        <v>407300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>424100</v>
+      </c>
+      <c r="K57" s="3">
         <v>402200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>71200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>102300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40300</v>
+        <v>37700</v>
       </c>
       <c r="E58" s="3">
-        <v>39300</v>
+        <v>38800</v>
       </c>
       <c r="F58" s="3">
-        <v>49400</v>
+        <v>40000</v>
       </c>
       <c r="G58" s="3">
-        <v>38400</v>
+        <v>39000</v>
       </c>
       <c r="H58" s="3">
-        <v>34900</v>
+        <v>48900</v>
       </c>
       <c r="I58" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K58" s="3">
         <v>32100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>92100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>95700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53700</v>
+        <v>66800</v>
       </c>
       <c r="E59" s="3">
-        <v>47000</v>
+        <v>59200</v>
       </c>
       <c r="F59" s="3">
-        <v>371800</v>
+        <v>53200</v>
       </c>
       <c r="G59" s="3">
-        <v>52700</v>
+        <v>46600</v>
       </c>
       <c r="H59" s="3">
-        <v>54800</v>
+        <v>368500</v>
       </c>
       <c r="I59" s="3">
+        <v>52200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K59" s="3">
         <v>45100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>324400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>355500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>564000</v>
+        <v>553300</v>
       </c>
       <c r="E60" s="3">
-        <v>528900</v>
+        <v>533200</v>
       </c>
       <c r="F60" s="3">
-        <v>513200</v>
+        <v>558900</v>
       </c>
       <c r="G60" s="3">
-        <v>502000</v>
+        <v>524100</v>
       </c>
       <c r="H60" s="3">
-        <v>517600</v>
+        <v>508600</v>
       </c>
       <c r="I60" s="3">
+        <v>497500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>513000</v>
+      </c>
+      <c r="K60" s="3">
         <v>479300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>487700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>553500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61500</v>
+        <v>58300</v>
       </c>
       <c r="E61" s="3">
-        <v>67400</v>
+        <v>57300</v>
       </c>
       <c r="F61" s="3">
-        <v>72200</v>
+        <v>61000</v>
       </c>
       <c r="G61" s="3">
-        <v>51000</v>
+        <v>66800</v>
       </c>
       <c r="H61" s="3">
-        <v>54700</v>
+        <v>71600</v>
       </c>
       <c r="I61" s="3">
+        <v>50600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K61" s="3">
         <v>642000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>409000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>430500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="E62" s="3">
-        <v>11100</v>
+        <v>9700</v>
       </c>
       <c r="F62" s="3">
-        <v>11800</v>
+        <v>10300</v>
       </c>
       <c r="G62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M62" s="3">
         <v>12500</v>
       </c>
-      <c r="H62" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>10900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>12500</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>635200</v>
+        <v>620600</v>
       </c>
       <c r="E66" s="3">
-        <v>606800</v>
+        <v>599100</v>
       </c>
       <c r="F66" s="3">
-        <v>596200</v>
+        <v>629500</v>
       </c>
       <c r="G66" s="3">
-        <v>565300</v>
+        <v>601300</v>
       </c>
       <c r="H66" s="3">
-        <v>586800</v>
+        <v>590800</v>
       </c>
       <c r="I66" s="3">
+        <v>560200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>581500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1132300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>909600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>997300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-183700</v>
+        <v>-138900</v>
       </c>
       <c r="E72" s="3">
-        <v>-212200</v>
+        <v>-173200</v>
       </c>
       <c r="F72" s="3">
-        <v>-240200</v>
+        <v>-182000</v>
       </c>
       <c r="G72" s="3">
-        <v>-265300</v>
+        <v>-210300</v>
       </c>
       <c r="H72" s="3">
-        <v>-289500</v>
+        <v>-238100</v>
       </c>
       <c r="I72" s="3">
+        <v>-262900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-286900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-302600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-73500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-84300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>992700</v>
+        <v>1026800</v>
       </c>
       <c r="E76" s="3">
-        <v>964100</v>
+        <v>992500</v>
       </c>
       <c r="F76" s="3">
-        <v>981300</v>
+        <v>983700</v>
       </c>
       <c r="G76" s="3">
-        <v>956200</v>
+        <v>955400</v>
       </c>
       <c r="H76" s="3">
-        <v>932000</v>
+        <v>972400</v>
       </c>
       <c r="I76" s="3">
+        <v>947600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>923600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-278500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-49600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-62200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27200</v>
+        <v>29900</v>
       </c>
       <c r="E81" s="3">
-        <v>22400</v>
+        <v>14100</v>
       </c>
       <c r="F81" s="3">
-        <v>16900</v>
+        <v>27000</v>
       </c>
       <c r="G81" s="3">
-        <v>18000</v>
+        <v>22200</v>
       </c>
       <c r="H81" s="3">
-        <v>3100</v>
+        <v>16800</v>
       </c>
       <c r="I81" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-246500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-44600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3670,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3277,8 +3711,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3851,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +4073,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3622,8 +4114,14 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4155,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +4194,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -734,25 +734,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>338500</v>
+        <v>322600</v>
       </c>
       <c r="E8" s="3">
-        <v>341900</v>
+        <v>325900</v>
       </c>
       <c r="F8" s="3">
-        <v>404900</v>
+        <v>386000</v>
       </c>
       <c r="G8" s="3">
-        <v>387600</v>
+        <v>369500</v>
       </c>
       <c r="H8" s="3">
-        <v>361000</v>
+        <v>344200</v>
       </c>
       <c r="I8" s="3">
-        <v>325600</v>
+        <v>310300</v>
       </c>
       <c r="J8" s="3">
-        <v>335500</v>
+        <v>319800</v>
       </c>
       <c r="K8" s="3">
         <v>305300</v>
@@ -775,25 +775,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>225700</v>
+        <v>215200</v>
       </c>
       <c r="E9" s="3">
-        <v>238700</v>
+        <v>227500</v>
       </c>
       <c r="F9" s="3">
-        <v>278900</v>
+        <v>265900</v>
       </c>
       <c r="G9" s="3">
-        <v>281200</v>
+        <v>268100</v>
       </c>
       <c r="H9" s="3">
-        <v>267700</v>
+        <v>255200</v>
       </c>
       <c r="I9" s="3">
-        <v>234100</v>
+        <v>223100</v>
       </c>
       <c r="J9" s="3">
-        <v>241700</v>
+        <v>230400</v>
       </c>
       <c r="K9" s="3">
         <v>228400</v>
@@ -816,25 +816,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>112700</v>
+        <v>107400</v>
       </c>
       <c r="E10" s="3">
-        <v>103200</v>
+        <v>98300</v>
       </c>
       <c r="F10" s="3">
-        <v>126000</v>
+        <v>120100</v>
       </c>
       <c r="G10" s="3">
-        <v>106400</v>
+        <v>101400</v>
       </c>
       <c r="H10" s="3">
-        <v>93300</v>
+        <v>89000</v>
       </c>
       <c r="I10" s="3">
-        <v>91500</v>
+        <v>87200</v>
       </c>
       <c r="J10" s="3">
-        <v>93900</v>
+        <v>89500</v>
       </c>
       <c r="K10" s="3">
         <v>77000</v>
@@ -962,7 +962,7 @@
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1052,25 +1052,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>298700</v>
+        <v>284700</v>
       </c>
       <c r="E17" s="3">
-        <v>321300</v>
+        <v>306200</v>
       </c>
       <c r="F17" s="3">
-        <v>367600</v>
+        <v>350400</v>
       </c>
       <c r="G17" s="3">
-        <v>356400</v>
+        <v>339700</v>
       </c>
       <c r="H17" s="3">
-        <v>333600</v>
+        <v>318000</v>
       </c>
       <c r="I17" s="3">
-        <v>302000</v>
+        <v>287900</v>
       </c>
       <c r="J17" s="3">
-        <v>327600</v>
+        <v>312300</v>
       </c>
       <c r="K17" s="3">
         <v>305700</v>
@@ -1093,25 +1093,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>39700</v>
+        <v>37900</v>
       </c>
       <c r="E18" s="3">
-        <v>20600</v>
+        <v>19600</v>
       </c>
       <c r="F18" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="G18" s="3">
-        <v>31200</v>
+        <v>29700</v>
       </c>
       <c r="H18" s="3">
-        <v>27400</v>
+        <v>26200</v>
       </c>
       <c r="I18" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="J18" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
@@ -1151,13 +1151,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
@@ -1274,25 +1274,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="E23" s="3">
-        <v>21300</v>
+        <v>20300</v>
       </c>
       <c r="F23" s="3">
-        <v>38000</v>
+        <v>36200</v>
       </c>
       <c r="G23" s="3">
-        <v>30600</v>
+        <v>29200</v>
       </c>
       <c r="H23" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="I23" s="3">
-        <v>23700</v>
+        <v>22600</v>
       </c>
       <c r="J23" s="3">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="K23" s="3">
         <v>-239500</v>
@@ -1315,25 +1315,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="E24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G24" s="3">
         <v>7700</v>
       </c>
-      <c r="F24" s="3">
-        <v>11100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>8100</v>
-      </c>
       <c r="H24" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="I24" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="J24" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="K24" s="3">
         <v>7500</v>
@@ -1397,25 +1397,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30400</v>
+        <v>29000</v>
       </c>
       <c r="E26" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="F26" s="3">
-        <v>26900</v>
+        <v>25600</v>
       </c>
       <c r="G26" s="3">
-        <v>22600</v>
+        <v>21500</v>
       </c>
       <c r="H26" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="I26" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="J26" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K26" s="3">
         <v>-247000</v>
@@ -1438,25 +1438,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="E27" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="F27" s="3">
-        <v>27000</v>
+        <v>25700</v>
       </c>
       <c r="G27" s="3">
-        <v>22200</v>
+        <v>21200</v>
       </c>
       <c r="H27" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="I27" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="J27" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K27" s="3">
         <v>-246500</v>
@@ -1519,8 +1519,8 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1643,13 +1643,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
@@ -1684,25 +1684,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="E33" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="F33" s="3">
-        <v>27000</v>
+        <v>25700</v>
       </c>
       <c r="G33" s="3">
-        <v>22200</v>
+        <v>21200</v>
       </c>
       <c r="H33" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="I33" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="J33" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K33" s="3">
         <v>-246500</v>
@@ -1766,25 +1766,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="E35" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="F35" s="3">
-        <v>27000</v>
+        <v>25700</v>
       </c>
       <c r="G35" s="3">
-        <v>22200</v>
+        <v>21200</v>
       </c>
       <c r="H35" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="I35" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="J35" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K35" s="3">
         <v>-246500</v>
@@ -1887,25 +1887,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>781000</v>
+        <v>744500</v>
       </c>
       <c r="E41" s="3">
-        <v>769600</v>
+        <v>733600</v>
       </c>
       <c r="F41" s="3">
-        <v>752300</v>
+        <v>717100</v>
       </c>
       <c r="G41" s="3">
-        <v>866100</v>
+        <v>825600</v>
       </c>
       <c r="H41" s="3">
-        <v>988900</v>
+        <v>942600</v>
       </c>
       <c r="I41" s="3">
-        <v>1011200</v>
+        <v>963900</v>
       </c>
       <c r="J41" s="3">
-        <v>998900</v>
+        <v>952200</v>
       </c>
       <c r="K41" s="3">
         <v>436300</v>
@@ -1928,25 +1928,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65300</v>
+        <v>62300</v>
       </c>
       <c r="E42" s="3">
-        <v>30200</v>
+        <v>28700</v>
       </c>
       <c r="F42" s="3">
-        <v>30400</v>
+        <v>29000</v>
       </c>
       <c r="G42" s="3">
-        <v>30000</v>
+        <v>28600</v>
       </c>
       <c r="H42" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="I42" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="J42" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1969,25 +1969,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>154200</v>
+        <v>147000</v>
       </c>
       <c r="E43" s="3">
-        <v>154900</v>
+        <v>147600</v>
       </c>
       <c r="F43" s="3">
-        <v>162600</v>
+        <v>155000</v>
       </c>
       <c r="G43" s="3">
-        <v>148200</v>
+        <v>141300</v>
       </c>
       <c r="H43" s="3">
-        <v>113100</v>
+        <v>107800</v>
       </c>
       <c r="I43" s="3">
-        <v>116500</v>
+        <v>111100</v>
       </c>
       <c r="J43" s="3">
-        <v>111900</v>
+        <v>106700</v>
       </c>
       <c r="K43" s="3">
         <v>104100</v>
@@ -2010,25 +2010,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>173500</v>
+        <v>165400</v>
       </c>
       <c r="E44" s="3">
-        <v>169800</v>
+        <v>161900</v>
       </c>
       <c r="F44" s="3">
-        <v>198700</v>
+        <v>189500</v>
       </c>
       <c r="G44" s="3">
-        <v>227700</v>
+        <v>217000</v>
       </c>
       <c r="H44" s="3">
-        <v>218500</v>
+        <v>208300</v>
       </c>
       <c r="I44" s="3">
-        <v>193500</v>
+        <v>184500</v>
       </c>
       <c r="J44" s="3">
-        <v>206400</v>
+        <v>196700</v>
       </c>
       <c r="K44" s="3">
         <v>195200</v>
@@ -2051,19 +2051,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E45" s="3">
         <v>1400</v>
       </c>
       <c r="F45" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -2092,25 +2092,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1178800</v>
+        <v>1123700</v>
       </c>
       <c r="E46" s="3">
-        <v>1125900</v>
+        <v>1073200</v>
       </c>
       <c r="F46" s="3">
-        <v>1145100</v>
+        <v>1091500</v>
       </c>
       <c r="G46" s="3">
-        <v>1272300</v>
+        <v>1212800</v>
       </c>
       <c r="H46" s="3">
-        <v>1343300</v>
+        <v>1280500</v>
       </c>
       <c r="I46" s="3">
-        <v>1336200</v>
+        <v>1273700</v>
       </c>
       <c r="J46" s="3">
-        <v>1332000</v>
+        <v>1269700</v>
       </c>
       <c r="K46" s="3">
         <v>736200</v>
@@ -2133,25 +2133,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E47" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>50300</v>
+        <v>47900</v>
       </c>
       <c r="H47" s="3">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="I47" s="3">
-        <v>51900</v>
+        <v>49400</v>
       </c>
       <c r="J47" s="3">
-        <v>52000</v>
+        <v>49600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2174,25 +2174,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>403400</v>
+        <v>384500</v>
       </c>
       <c r="E48" s="3">
-        <v>401300</v>
+        <v>382500</v>
       </c>
       <c r="F48" s="3">
-        <v>404200</v>
+        <v>385300</v>
       </c>
       <c r="G48" s="3">
-        <v>141400</v>
+        <v>134800</v>
       </c>
       <c r="H48" s="3">
-        <v>111900</v>
+        <v>106700</v>
       </c>
       <c r="I48" s="3">
-        <v>80000</v>
+        <v>76200</v>
       </c>
       <c r="J48" s="3">
-        <v>82800</v>
+        <v>78900</v>
       </c>
       <c r="K48" s="3">
         <v>79100</v>
@@ -2215,25 +2215,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="E49" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J49" s="3">
         <v>9800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>10700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>12500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>10300</v>
       </c>
       <c r="K49" s="3">
         <v>10700</v>
@@ -2338,25 +2338,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>52000</v>
+        <v>49600</v>
       </c>
       <c r="E52" s="3">
-        <v>53200</v>
+        <v>50700</v>
       </c>
       <c r="F52" s="3">
-        <v>53200</v>
+        <v>50700</v>
       </c>
       <c r="G52" s="3">
-        <v>81600</v>
+        <v>77700</v>
       </c>
       <c r="H52" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="I52" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="J52" s="3">
-        <v>28100</v>
+        <v>26800</v>
       </c>
       <c r="K52" s="3">
         <v>27800</v>
@@ -2420,25 +2420,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1647500</v>
+        <v>1570400</v>
       </c>
       <c r="E54" s="3">
-        <v>1591600</v>
+        <v>1517200</v>
       </c>
       <c r="F54" s="3">
-        <v>1613200</v>
+        <v>1537700</v>
       </c>
       <c r="G54" s="3">
-        <v>1556700</v>
+        <v>1483900</v>
       </c>
       <c r="H54" s="3">
-        <v>1563300</v>
+        <v>1490100</v>
       </c>
       <c r="I54" s="3">
-        <v>1507800</v>
+        <v>1437200</v>
       </c>
       <c r="J54" s="3">
-        <v>1505100</v>
+        <v>1434700</v>
       </c>
       <c r="K54" s="3">
         <v>853900</v>
@@ -2495,25 +2495,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>448700</v>
+        <v>427800</v>
       </c>
       <c r="E57" s="3">
-        <v>435100</v>
+        <v>414800</v>
       </c>
       <c r="F57" s="3">
-        <v>465700</v>
+        <v>443900</v>
       </c>
       <c r="G57" s="3">
-        <v>438600</v>
+        <v>418100</v>
       </c>
       <c r="H57" s="3">
-        <v>91200</v>
+        <v>87000</v>
       </c>
       <c r="I57" s="3">
-        <v>407300</v>
+        <v>388200</v>
       </c>
       <c r="J57" s="3">
-        <v>424100</v>
+        <v>404300</v>
       </c>
       <c r="K57" s="3">
         <v>402200</v>
@@ -2536,25 +2536,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37700</v>
+        <v>36000</v>
       </c>
       <c r="E58" s="3">
-        <v>38800</v>
+        <v>37000</v>
       </c>
       <c r="F58" s="3">
-        <v>40000</v>
+        <v>38100</v>
       </c>
       <c r="G58" s="3">
-        <v>39000</v>
+        <v>37100</v>
       </c>
       <c r="H58" s="3">
-        <v>48900</v>
+        <v>46600</v>
       </c>
       <c r="I58" s="3">
-        <v>38000</v>
+        <v>36200</v>
       </c>
       <c r="J58" s="3">
-        <v>34600</v>
+        <v>33000</v>
       </c>
       <c r="K58" s="3">
         <v>32100</v>
@@ -2577,25 +2577,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>66800</v>
+        <v>63600</v>
       </c>
       <c r="E59" s="3">
-        <v>59200</v>
+        <v>56400</v>
       </c>
       <c r="F59" s="3">
-        <v>53200</v>
+        <v>50700</v>
       </c>
       <c r="G59" s="3">
-        <v>46600</v>
+        <v>44400</v>
       </c>
       <c r="H59" s="3">
-        <v>368500</v>
+        <v>351200</v>
       </c>
       <c r="I59" s="3">
-        <v>52200</v>
+        <v>49700</v>
       </c>
       <c r="J59" s="3">
-        <v>54300</v>
+        <v>51700</v>
       </c>
       <c r="K59" s="3">
         <v>45100</v>
@@ -2618,25 +2618,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>553300</v>
+        <v>527400</v>
       </c>
       <c r="E60" s="3">
-        <v>533200</v>
+        <v>508200</v>
       </c>
       <c r="F60" s="3">
-        <v>558900</v>
+        <v>532700</v>
       </c>
       <c r="G60" s="3">
-        <v>524100</v>
+        <v>499600</v>
       </c>
       <c r="H60" s="3">
-        <v>508600</v>
+        <v>484800</v>
       </c>
       <c r="I60" s="3">
-        <v>497500</v>
+        <v>474200</v>
       </c>
       <c r="J60" s="3">
-        <v>513000</v>
+        <v>489000</v>
       </c>
       <c r="K60" s="3">
         <v>479300</v>
@@ -2659,25 +2659,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58300</v>
+        <v>55600</v>
       </c>
       <c r="E61" s="3">
-        <v>57300</v>
+        <v>54600</v>
       </c>
       <c r="F61" s="3">
-        <v>61000</v>
+        <v>58100</v>
       </c>
       <c r="G61" s="3">
-        <v>66800</v>
+        <v>63700</v>
       </c>
       <c r="H61" s="3">
-        <v>71600</v>
+        <v>68200</v>
       </c>
       <c r="I61" s="3">
-        <v>50600</v>
+        <v>48200</v>
       </c>
       <c r="J61" s="3">
-        <v>54200</v>
+        <v>51600</v>
       </c>
       <c r="K61" s="3">
         <v>642000</v>
@@ -2700,25 +2700,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="E62" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="F62" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="G62" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="H62" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="I62" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J62" s="3">
         <v>12400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>13000</v>
       </c>
       <c r="K62" s="3">
         <v>9700</v>
@@ -2864,25 +2864,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>620600</v>
+        <v>591600</v>
       </c>
       <c r="E66" s="3">
-        <v>599100</v>
+        <v>571100</v>
       </c>
       <c r="F66" s="3">
-        <v>629500</v>
+        <v>600000</v>
       </c>
       <c r="G66" s="3">
-        <v>601300</v>
+        <v>573200</v>
       </c>
       <c r="H66" s="3">
-        <v>590800</v>
+        <v>563200</v>
       </c>
       <c r="I66" s="3">
-        <v>560200</v>
+        <v>534000</v>
       </c>
       <c r="J66" s="3">
-        <v>581500</v>
+        <v>554300</v>
       </c>
       <c r="K66" s="3">
         <v>1132300</v>
@@ -3086,25 +3086,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-138900</v>
+        <v>-132400</v>
       </c>
       <c r="E72" s="3">
-        <v>-173200</v>
+        <v>-165100</v>
       </c>
       <c r="F72" s="3">
-        <v>-182000</v>
+        <v>-173500</v>
       </c>
       <c r="G72" s="3">
-        <v>-210300</v>
+        <v>-200500</v>
       </c>
       <c r="H72" s="3">
-        <v>-238100</v>
+        <v>-226900</v>
       </c>
       <c r="I72" s="3">
-        <v>-262900</v>
+        <v>-250600</v>
       </c>
       <c r="J72" s="3">
-        <v>-286900</v>
+        <v>-273500</v>
       </c>
       <c r="K72" s="3">
         <v>-302600</v>
@@ -3250,25 +3250,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1026800</v>
+        <v>978800</v>
       </c>
       <c r="E76" s="3">
-        <v>992500</v>
+        <v>946100</v>
       </c>
       <c r="F76" s="3">
-        <v>983700</v>
+        <v>937700</v>
       </c>
       <c r="G76" s="3">
-        <v>955400</v>
+        <v>910700</v>
       </c>
       <c r="H76" s="3">
-        <v>972400</v>
+        <v>926900</v>
       </c>
       <c r="I76" s="3">
-        <v>947600</v>
+        <v>903300</v>
       </c>
       <c r="J76" s="3">
-        <v>923600</v>
+        <v>880400</v>
       </c>
       <c r="K76" s="3">
         <v>-278500</v>
@@ -3378,25 +3378,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="E81" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="F81" s="3">
-        <v>27000</v>
+        <v>25700</v>
       </c>
       <c r="G81" s="3">
-        <v>22200</v>
+        <v>21200</v>
       </c>
       <c r="H81" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="I81" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="J81" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K81" s="3">
         <v>-246500</v>

--- a/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,219 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>322600</v>
+        <v>358200</v>
       </c>
       <c r="E8" s="3">
-        <v>325900</v>
+        <v>398200</v>
       </c>
       <c r="F8" s="3">
-        <v>386000</v>
+        <v>332900</v>
       </c>
       <c r="G8" s="3">
-        <v>369500</v>
+        <v>336200</v>
       </c>
       <c r="H8" s="3">
-        <v>344200</v>
+        <v>398200</v>
       </c>
       <c r="I8" s="3">
+        <v>381200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>355100</v>
+      </c>
+      <c r="K8" s="3">
         <v>310300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>319800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>305300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>228900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>255700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>891900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>215200</v>
+        <v>215000</v>
       </c>
       <c r="E9" s="3">
-        <v>227500</v>
+        <v>256200</v>
       </c>
       <c r="F9" s="3">
-        <v>265900</v>
+        <v>222000</v>
       </c>
       <c r="G9" s="3">
-        <v>268100</v>
+        <v>234700</v>
       </c>
       <c r="H9" s="3">
-        <v>255200</v>
+        <v>274300</v>
       </c>
       <c r="I9" s="3">
+        <v>276600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>263300</v>
+      </c>
+      <c r="K9" s="3">
         <v>223100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>230400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>228400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>173000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>172900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>611000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>279300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>107400</v>
+        <v>143200</v>
       </c>
       <c r="E10" s="3">
-        <v>98300</v>
+        <v>142000</v>
       </c>
       <c r="F10" s="3">
-        <v>120100</v>
+        <v>110900</v>
       </c>
       <c r="G10" s="3">
-        <v>101400</v>
+        <v>101500</v>
       </c>
       <c r="H10" s="3">
-        <v>89000</v>
+        <v>123900</v>
       </c>
       <c r="I10" s="3">
+        <v>104600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K10" s="3">
         <v>87200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>89500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>77000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>55900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>82700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>280900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,25 +983,31 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>1400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -979,20 +1018,26 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-2600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>284700</v>
+        <v>294000</v>
       </c>
       <c r="E17" s="3">
-        <v>306200</v>
+        <v>325000</v>
       </c>
       <c r="F17" s="3">
-        <v>350400</v>
+        <v>293800</v>
       </c>
       <c r="G17" s="3">
-        <v>339700</v>
+        <v>316000</v>
       </c>
       <c r="H17" s="3">
-        <v>318000</v>
+        <v>361500</v>
       </c>
       <c r="I17" s="3">
+        <v>350500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>328100</v>
+      </c>
+      <c r="K17" s="3">
         <v>287900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>312300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>305700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>233300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>249400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>775500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37900</v>
+        <v>64300</v>
       </c>
       <c r="E18" s="3">
-        <v>19600</v>
+        <v>73200</v>
       </c>
       <c r="F18" s="3">
-        <v>35600</v>
+        <v>39100</v>
       </c>
       <c r="G18" s="3">
-        <v>29700</v>
+        <v>20200</v>
       </c>
       <c r="H18" s="3">
-        <v>26200</v>
+        <v>36700</v>
       </c>
       <c r="I18" s="3">
+        <v>30700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K18" s="3">
         <v>22400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>7600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>116500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,49 +1210,57 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="E20" s="3">
-        <v>600</v>
+        <v>3600</v>
       </c>
       <c r="F20" s="3">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="G20" s="3">
+        <v>700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-239200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>26900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-128300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-87300</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1215,20 +1288,26 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>64400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1256,102 +1335,120 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>40500</v>
+        <v>67600</v>
       </c>
       <c r="E23" s="3">
-        <v>20300</v>
+        <v>76800</v>
       </c>
       <c r="F23" s="3">
-        <v>36200</v>
+        <v>41800</v>
       </c>
       <c r="G23" s="3">
-        <v>29200</v>
+        <v>20900</v>
       </c>
       <c r="H23" s="3">
-        <v>25800</v>
+        <v>37400</v>
       </c>
       <c r="I23" s="3">
+        <v>30100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K23" s="3">
         <v>22600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-239500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>29900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-11900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-37900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="E24" s="3">
-        <v>7400</v>
+        <v>18700</v>
       </c>
       <c r="F24" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J24" s="3">
         <v>10600</v>
       </c>
-      <c r="G24" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>22800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>29000</v>
+        <v>51700</v>
       </c>
       <c r="E26" s="3">
-        <v>12900</v>
+        <v>58000</v>
       </c>
       <c r="F26" s="3">
-        <v>25600</v>
+        <v>29900</v>
       </c>
       <c r="G26" s="3">
-        <v>21500</v>
+        <v>13300</v>
       </c>
       <c r="H26" s="3">
-        <v>15500</v>
+        <v>26400</v>
       </c>
       <c r="I26" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J26" s="3">
         <v>16000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>16000</v>
+      </c>
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-247000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>26600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-34700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28500</v>
+        <v>50600</v>
       </c>
       <c r="E27" s="3">
-        <v>13400</v>
+        <v>59100</v>
       </c>
       <c r="F27" s="3">
-        <v>25700</v>
+        <v>29400</v>
       </c>
       <c r="G27" s="3">
-        <v>21200</v>
+        <v>13900</v>
       </c>
       <c r="H27" s="3">
-        <v>16000</v>
+        <v>26500</v>
       </c>
       <c r="I27" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K27" s="3">
         <v>17000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-246500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-12000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>27300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-34700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-51800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,49 +1629,61 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>4800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-15400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-9900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2700</v>
+        <v>-3300</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>-3600</v>
       </c>
       <c r="F32" s="3">
-        <v>-600</v>
+        <v>-2800</v>
       </c>
       <c r="G32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>239200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-26900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>128300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28500</v>
+        <v>50600</v>
       </c>
       <c r="E33" s="3">
-        <v>13400</v>
+        <v>59100</v>
       </c>
       <c r="F33" s="3">
-        <v>25700</v>
+        <v>29400</v>
       </c>
       <c r="G33" s="3">
-        <v>21200</v>
+        <v>13900</v>
       </c>
       <c r="H33" s="3">
-        <v>16000</v>
+        <v>26500</v>
       </c>
       <c r="I33" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K33" s="3">
         <v>17000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-246500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-44600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28500</v>
+        <v>50600</v>
       </c>
       <c r="E35" s="3">
-        <v>13400</v>
+        <v>59100</v>
       </c>
       <c r="F35" s="3">
-        <v>25700</v>
+        <v>29400</v>
       </c>
       <c r="G35" s="3">
-        <v>21200</v>
+        <v>13900</v>
       </c>
       <c r="H35" s="3">
-        <v>16000</v>
+        <v>26500</v>
       </c>
       <c r="I35" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K35" s="3">
         <v>17000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-246500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-44600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,284 +2052,322 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>744500</v>
+        <v>744900</v>
       </c>
       <c r="E41" s="3">
-        <v>733600</v>
+        <v>773800</v>
       </c>
       <c r="F41" s="3">
-        <v>717100</v>
+        <v>768200</v>
       </c>
       <c r="G41" s="3">
-        <v>825600</v>
+        <v>756900</v>
       </c>
       <c r="H41" s="3">
-        <v>942600</v>
+        <v>739900</v>
       </c>
       <c r="I41" s="3">
+        <v>851800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>972500</v>
+      </c>
+      <c r="K41" s="3">
         <v>963900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>952200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>436300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>420600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>377200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62300</v>
+        <v>135700</v>
       </c>
       <c r="E42" s="3">
-        <v>28700</v>
+        <v>84600</v>
       </c>
       <c r="F42" s="3">
-        <v>29000</v>
+        <v>64300</v>
       </c>
       <c r="G42" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="H42" s="3">
-        <v>14300</v>
+        <v>29900</v>
       </c>
       <c r="I42" s="3">
+        <v>29500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K42" s="3">
         <v>14100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>14000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>21300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>147000</v>
+        <v>148200</v>
       </c>
       <c r="E43" s="3">
-        <v>147600</v>
+        <v>158800</v>
       </c>
       <c r="F43" s="3">
-        <v>155000</v>
+        <v>151700</v>
       </c>
       <c r="G43" s="3">
-        <v>141300</v>
+        <v>152300</v>
       </c>
       <c r="H43" s="3">
-        <v>107800</v>
+        <v>159900</v>
       </c>
       <c r="I43" s="3">
+        <v>145800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K43" s="3">
         <v>111100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>106700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>104100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>97900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>181300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>165400</v>
+        <v>211800</v>
       </c>
       <c r="E44" s="3">
-        <v>161900</v>
+        <v>189100</v>
       </c>
       <c r="F44" s="3">
-        <v>189500</v>
+        <v>170600</v>
       </c>
       <c r="G44" s="3">
-        <v>217000</v>
+        <v>167000</v>
       </c>
       <c r="H44" s="3">
-        <v>208300</v>
+        <v>195500</v>
       </c>
       <c r="I44" s="3">
+        <v>223900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>214900</v>
+      </c>
+      <c r="K44" s="3">
         <v>184500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>196700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>195200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>205700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>214100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4500</v>
+        <v>15100</v>
       </c>
       <c r="E45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>11100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1123700</v>
+        <v>1255800</v>
       </c>
       <c r="E46" s="3">
-        <v>1073200</v>
+        <v>1210600</v>
       </c>
       <c r="F46" s="3">
-        <v>1091500</v>
+        <v>1159400</v>
       </c>
       <c r="G46" s="3">
-        <v>1212800</v>
+        <v>1107300</v>
       </c>
       <c r="H46" s="3">
-        <v>1280500</v>
+        <v>1126200</v>
       </c>
       <c r="I46" s="3">
+        <v>1251300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1321200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1273700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1269700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>736200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>734800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>805100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G47" s="3">
         <v>1400</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>47900</v>
-      </c>
       <c r="H47" s="3">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>49400</v>
       </c>
       <c r="J47" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K47" s="3">
+        <v>49400</v>
+      </c>
+      <c r="L47" s="3">
         <v>49600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2168,90 +2377,108 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>384500</v>
+        <v>402800</v>
       </c>
       <c r="E48" s="3">
-        <v>382500</v>
+        <v>397900</v>
       </c>
       <c r="F48" s="3">
-        <v>385300</v>
+        <v>396700</v>
       </c>
       <c r="G48" s="3">
-        <v>134800</v>
+        <v>394600</v>
       </c>
       <c r="H48" s="3">
-        <v>106700</v>
+        <v>397500</v>
       </c>
       <c r="I48" s="3">
+        <v>139100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K48" s="3">
         <v>76200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>78900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>79100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>87100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>93800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8700</v>
+        <v>7800</v>
       </c>
       <c r="E49" s="3">
-        <v>9300</v>
+        <v>8300</v>
       </c>
       <c r="F49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>9800</v>
+      </c>
+      <c r="M49" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N49" s="3">
         <v>10200</v>
       </c>
-      <c r="G49" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>11900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>9800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>10700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>10200</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>9900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49600</v>
+        <v>52600</v>
       </c>
       <c r="E52" s="3">
-        <v>50700</v>
+        <v>51100</v>
       </c>
       <c r="F52" s="3">
-        <v>50700</v>
+        <v>51100</v>
       </c>
       <c r="G52" s="3">
-        <v>77700</v>
+        <v>52400</v>
       </c>
       <c r="H52" s="3">
-        <v>42700</v>
+        <v>52300</v>
       </c>
       <c r="I52" s="3">
+        <v>80200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K52" s="3">
         <v>25900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>26800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>27800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>27900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>26300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1570400</v>
+        <v>1723100</v>
       </c>
       <c r="E54" s="3">
-        <v>1517200</v>
+        <v>1671200</v>
       </c>
       <c r="F54" s="3">
-        <v>1537700</v>
+        <v>1620300</v>
       </c>
       <c r="G54" s="3">
-        <v>1483900</v>
+        <v>1565300</v>
       </c>
       <c r="H54" s="3">
-        <v>1490100</v>
+        <v>1586500</v>
       </c>
       <c r="I54" s="3">
+        <v>1531000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1537500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1437200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1434700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>853900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>860000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>935100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2748,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>427800</v>
+        <v>86800</v>
       </c>
       <c r="E57" s="3">
-        <v>414800</v>
+        <v>415300</v>
       </c>
       <c r="F57" s="3">
-        <v>443900</v>
+        <v>441300</v>
       </c>
       <c r="G57" s="3">
-        <v>418100</v>
+        <v>428000</v>
       </c>
       <c r="H57" s="3">
-        <v>87000</v>
+        <v>458000</v>
       </c>
       <c r="I57" s="3">
+        <v>431300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K57" s="3">
         <v>388200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>404300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>402200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>71200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>102300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>36000</v>
+        <v>38300</v>
       </c>
       <c r="E58" s="3">
-        <v>37000</v>
+        <v>38300</v>
       </c>
       <c r="F58" s="3">
-        <v>38100</v>
+        <v>37100</v>
       </c>
       <c r="G58" s="3">
-        <v>37100</v>
+        <v>38200</v>
       </c>
       <c r="H58" s="3">
-        <v>46600</v>
+        <v>39300</v>
       </c>
       <c r="I58" s="3">
+        <v>38300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K58" s="3">
         <v>36200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>33000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>32100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>92100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>95700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>63600</v>
+        <v>408000</v>
       </c>
       <c r="E59" s="3">
-        <v>56400</v>
+        <v>72500</v>
       </c>
       <c r="F59" s="3">
-        <v>50700</v>
+        <v>65700</v>
       </c>
       <c r="G59" s="3">
-        <v>44400</v>
+        <v>58200</v>
       </c>
       <c r="H59" s="3">
-        <v>351200</v>
+        <v>52300</v>
       </c>
       <c r="I59" s="3">
+        <v>45800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K59" s="3">
         <v>49700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>51700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>45100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>324400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>355500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>527400</v>
+        <v>533100</v>
       </c>
       <c r="E60" s="3">
-        <v>508200</v>
+        <v>526000</v>
       </c>
       <c r="F60" s="3">
-        <v>532700</v>
+        <v>544100</v>
       </c>
       <c r="G60" s="3">
-        <v>499600</v>
+        <v>524400</v>
       </c>
       <c r="H60" s="3">
-        <v>484800</v>
+        <v>549600</v>
       </c>
       <c r="I60" s="3">
+        <v>515500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>500200</v>
+      </c>
+      <c r="K60" s="3">
         <v>474200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>489000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>479300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>487700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>553500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55600</v>
+        <v>59600</v>
       </c>
       <c r="E61" s="3">
-        <v>54600</v>
+        <v>58300</v>
       </c>
       <c r="F61" s="3">
-        <v>58100</v>
+        <v>57400</v>
       </c>
       <c r="G61" s="3">
-        <v>63700</v>
+        <v>56300</v>
       </c>
       <c r="H61" s="3">
-        <v>68200</v>
+        <v>60000</v>
       </c>
       <c r="I61" s="3">
+        <v>65700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K61" s="3">
         <v>48200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>51600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>642000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>409000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>430500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="E62" s="3">
         <v>9300</v>
       </c>
       <c r="F62" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="G62" s="3">
-        <v>10500</v>
+        <v>9600</v>
       </c>
       <c r="H62" s="3">
-        <v>11100</v>
+        <v>10100</v>
       </c>
       <c r="I62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K62" s="3">
         <v>11900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>10900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>12500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>591600</v>
+        <v>601800</v>
       </c>
       <c r="E66" s="3">
-        <v>571100</v>
+        <v>592800</v>
       </c>
       <c r="F66" s="3">
-        <v>600000</v>
+        <v>610400</v>
       </c>
       <c r="G66" s="3">
-        <v>573200</v>
+        <v>589200</v>
       </c>
       <c r="H66" s="3">
-        <v>563200</v>
+        <v>619100</v>
       </c>
       <c r="I66" s="3">
+        <v>591400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>581100</v>
+      </c>
+      <c r="K66" s="3">
         <v>534000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>554300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1132300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>909600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>997300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-132400</v>
+        <v>-30000</v>
       </c>
       <c r="E72" s="3">
-        <v>-165100</v>
+        <v>-72700</v>
       </c>
       <c r="F72" s="3">
-        <v>-173500</v>
+        <v>-136600</v>
       </c>
       <c r="G72" s="3">
-        <v>-200500</v>
+        <v>-170400</v>
       </c>
       <c r="H72" s="3">
-        <v>-226900</v>
+        <v>-179000</v>
       </c>
       <c r="I72" s="3">
+        <v>-206900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-234100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-250600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-273500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-302600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-73500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-84300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>978800</v>
+        <v>1121300</v>
       </c>
       <c r="E76" s="3">
-        <v>946100</v>
+        <v>1078500</v>
       </c>
       <c r="F76" s="3">
-        <v>937700</v>
+        <v>1009900</v>
       </c>
       <c r="G76" s="3">
-        <v>910700</v>
+        <v>976100</v>
       </c>
       <c r="H76" s="3">
-        <v>926900</v>
+        <v>967500</v>
       </c>
       <c r="I76" s="3">
+        <v>939600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>956400</v>
+      </c>
+      <c r="K76" s="3">
         <v>903300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>880400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-278500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-49600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-62200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28500</v>
+        <v>50600</v>
       </c>
       <c r="E81" s="3">
-        <v>13400</v>
+        <v>59100</v>
       </c>
       <c r="F81" s="3">
-        <v>25700</v>
+        <v>29400</v>
       </c>
       <c r="G81" s="3">
-        <v>21200</v>
+        <v>13900</v>
       </c>
       <c r="H81" s="3">
-        <v>16000</v>
+        <v>26500</v>
       </c>
       <c r="I81" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K81" s="3">
         <v>17000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-246500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-44600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +4103,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3717,8 +4150,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4357,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4564,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4120,8 +4611,14 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4658,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4703,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
@@ -741,25 +741,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>358200</v>
+        <v>354600</v>
       </c>
       <c r="E8" s="3">
-        <v>398200</v>
+        <v>394100</v>
       </c>
       <c r="F8" s="3">
-        <v>332900</v>
+        <v>329500</v>
       </c>
       <c r="G8" s="3">
-        <v>336200</v>
+        <v>332800</v>
       </c>
       <c r="H8" s="3">
-        <v>398200</v>
+        <v>394200</v>
       </c>
       <c r="I8" s="3">
-        <v>381200</v>
+        <v>377300</v>
       </c>
       <c r="J8" s="3">
-        <v>355100</v>
+        <v>351500</v>
       </c>
       <c r="K8" s="3">
         <v>310300</v>
@@ -788,25 +788,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>215000</v>
+        <v>212800</v>
       </c>
       <c r="E9" s="3">
-        <v>256200</v>
+        <v>253600</v>
       </c>
       <c r="F9" s="3">
-        <v>222000</v>
+        <v>219700</v>
       </c>
       <c r="G9" s="3">
-        <v>234700</v>
+        <v>232300</v>
       </c>
       <c r="H9" s="3">
-        <v>274300</v>
+        <v>271500</v>
       </c>
       <c r="I9" s="3">
-        <v>276600</v>
+        <v>273700</v>
       </c>
       <c r="J9" s="3">
-        <v>263300</v>
+        <v>260600</v>
       </c>
       <c r="K9" s="3">
         <v>223100</v>
@@ -835,25 +835,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>143200</v>
+        <v>141700</v>
       </c>
       <c r="E10" s="3">
-        <v>142000</v>
+        <v>140500</v>
       </c>
       <c r="F10" s="3">
-        <v>110900</v>
+        <v>109700</v>
       </c>
       <c r="G10" s="3">
-        <v>101500</v>
+        <v>100400</v>
       </c>
       <c r="H10" s="3">
-        <v>123900</v>
+        <v>122700</v>
       </c>
       <c r="I10" s="3">
-        <v>104600</v>
+        <v>103500</v>
       </c>
       <c r="J10" s="3">
-        <v>91800</v>
+        <v>90900</v>
       </c>
       <c r="K10" s="3">
         <v>87200</v>
@@ -1105,25 +1105,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>294000</v>
+        <v>291000</v>
       </c>
       <c r="E17" s="3">
-        <v>325000</v>
+        <v>321700</v>
       </c>
       <c r="F17" s="3">
-        <v>293800</v>
+        <v>290800</v>
       </c>
       <c r="G17" s="3">
-        <v>316000</v>
+        <v>312700</v>
       </c>
       <c r="H17" s="3">
-        <v>361500</v>
+        <v>357800</v>
       </c>
       <c r="I17" s="3">
-        <v>350500</v>
+        <v>346900</v>
       </c>
       <c r="J17" s="3">
-        <v>328100</v>
+        <v>324700</v>
       </c>
       <c r="K17" s="3">
         <v>287900</v>
@@ -1152,25 +1152,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>64300</v>
+        <v>63600</v>
       </c>
       <c r="E18" s="3">
-        <v>73200</v>
+        <v>72400</v>
       </c>
       <c r="F18" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="G18" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="H18" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="I18" s="3">
-        <v>30700</v>
+        <v>30300</v>
       </c>
       <c r="J18" s="3">
-        <v>27000</v>
+        <v>26700</v>
       </c>
       <c r="K18" s="3">
         <v>22400</v>
@@ -1224,7 +1224,7 @@
         <v>3600</v>
       </c>
       <c r="F20" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G20" s="3">
         <v>700</v>
@@ -1359,25 +1359,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>67600</v>
+        <v>66900</v>
       </c>
       <c r="E23" s="3">
-        <v>76800</v>
+        <v>76000</v>
       </c>
       <c r="F23" s="3">
-        <v>41800</v>
+        <v>41400</v>
       </c>
       <c r="G23" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="H23" s="3">
-        <v>37400</v>
+        <v>37000</v>
       </c>
       <c r="I23" s="3">
-        <v>30100</v>
+        <v>29800</v>
       </c>
       <c r="J23" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="K23" s="3">
         <v>22600</v>
@@ -1406,25 +1406,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="E24" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="F24" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="H24" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="I24" s="3">
         <v>7900</v>
       </c>
       <c r="J24" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="K24" s="3">
         <v>6600</v>
@@ -1500,25 +1500,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>51700</v>
+        <v>51100</v>
       </c>
       <c r="E26" s="3">
-        <v>58000</v>
+        <v>57400</v>
       </c>
       <c r="F26" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="G26" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="H26" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="I26" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="J26" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="K26" s="3">
         <v>16000</v>
@@ -1547,25 +1547,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="E27" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="F27" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="G27" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="H27" s="3">
-        <v>26500</v>
+        <v>26300</v>
       </c>
       <c r="I27" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="J27" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="K27" s="3">
         <v>17000</v>
@@ -1788,7 +1788,7 @@
         <v>-3600</v>
       </c>
       <c r="F32" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="G32" s="3">
         <v>-700</v>
@@ -1829,25 +1829,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="E33" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="F33" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="G33" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="H33" s="3">
-        <v>26500</v>
+        <v>26300</v>
       </c>
       <c r="I33" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="J33" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="K33" s="3">
         <v>17000</v>
@@ -1923,25 +1923,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="E35" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="F35" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="G35" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="H35" s="3">
-        <v>26500</v>
+        <v>26300</v>
       </c>
       <c r="I35" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="J35" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="K35" s="3">
         <v>17000</v>
@@ -2060,25 +2060,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>744900</v>
+        <v>737300</v>
       </c>
       <c r="E41" s="3">
-        <v>773800</v>
+        <v>765900</v>
       </c>
       <c r="F41" s="3">
-        <v>768200</v>
+        <v>760300</v>
       </c>
       <c r="G41" s="3">
-        <v>756900</v>
+        <v>749100</v>
       </c>
       <c r="H41" s="3">
-        <v>739900</v>
+        <v>732300</v>
       </c>
       <c r="I41" s="3">
-        <v>851800</v>
+        <v>843100</v>
       </c>
       <c r="J41" s="3">
-        <v>972500</v>
+        <v>962600</v>
       </c>
       <c r="K41" s="3">
         <v>963900</v>
@@ -2107,25 +2107,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>135700</v>
+        <v>134400</v>
       </c>
       <c r="E42" s="3">
-        <v>84600</v>
+        <v>83800</v>
       </c>
       <c r="F42" s="3">
-        <v>64300</v>
+        <v>63600</v>
       </c>
       <c r="G42" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="H42" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="I42" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="J42" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="K42" s="3">
         <v>14100</v>
@@ -2154,25 +2154,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>148200</v>
+        <v>146700</v>
       </c>
       <c r="E43" s="3">
-        <v>158800</v>
+        <v>157100</v>
       </c>
       <c r="F43" s="3">
-        <v>151700</v>
+        <v>150100</v>
       </c>
       <c r="G43" s="3">
-        <v>152300</v>
+        <v>150800</v>
       </c>
       <c r="H43" s="3">
-        <v>159900</v>
+        <v>158300</v>
       </c>
       <c r="I43" s="3">
-        <v>145800</v>
+        <v>144300</v>
       </c>
       <c r="J43" s="3">
-        <v>111200</v>
+        <v>110100</v>
       </c>
       <c r="K43" s="3">
         <v>111100</v>
@@ -2201,25 +2201,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>211800</v>
+        <v>209600</v>
       </c>
       <c r="E44" s="3">
-        <v>189100</v>
+        <v>187100</v>
       </c>
       <c r="F44" s="3">
-        <v>170600</v>
+        <v>168900</v>
       </c>
       <c r="G44" s="3">
-        <v>167000</v>
+        <v>165300</v>
       </c>
       <c r="H44" s="3">
-        <v>195500</v>
+        <v>193500</v>
       </c>
       <c r="I44" s="3">
-        <v>223900</v>
+        <v>221600</v>
       </c>
       <c r="J44" s="3">
-        <v>214900</v>
+        <v>212700</v>
       </c>
       <c r="K44" s="3">
         <v>184500</v>
@@ -2248,10 +2248,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="E45" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="F45" s="3">
         <v>4600</v>
@@ -2260,7 +2260,7 @@
         <v>1400</v>
       </c>
       <c r="H45" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -2295,25 +2295,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1255800</v>
+        <v>1242900</v>
       </c>
       <c r="E46" s="3">
-        <v>1210600</v>
+        <v>1198200</v>
       </c>
       <c r="F46" s="3">
-        <v>1159400</v>
+        <v>1147500</v>
       </c>
       <c r="G46" s="3">
-        <v>1107300</v>
+        <v>1096000</v>
       </c>
       <c r="H46" s="3">
-        <v>1126200</v>
+        <v>1114700</v>
       </c>
       <c r="I46" s="3">
-        <v>1251300</v>
+        <v>1238500</v>
       </c>
       <c r="J46" s="3">
-        <v>1321200</v>
+        <v>1307700</v>
       </c>
       <c r="K46" s="3">
         <v>1273700</v>
@@ -2345,10 +2345,10 @@
         <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F47" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G47" s="3">
         <v>1400</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>49400</v>
+        <v>48900</v>
       </c>
       <c r="J47" s="3">
-        <v>50600</v>
+        <v>50000</v>
       </c>
       <c r="K47" s="3">
         <v>49400</v>
@@ -2389,25 +2389,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>402800</v>
+        <v>398700</v>
       </c>
       <c r="E48" s="3">
-        <v>397900</v>
+        <v>393900</v>
       </c>
       <c r="F48" s="3">
-        <v>396700</v>
+        <v>392700</v>
       </c>
       <c r="G48" s="3">
-        <v>394600</v>
+        <v>390600</v>
       </c>
       <c r="H48" s="3">
-        <v>397500</v>
+        <v>393400</v>
       </c>
       <c r="I48" s="3">
-        <v>139100</v>
+        <v>137600</v>
       </c>
       <c r="J48" s="3">
-        <v>110000</v>
+        <v>108900</v>
       </c>
       <c r="K48" s="3">
         <v>76200</v>
@@ -2436,25 +2436,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="E49" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="F49" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="G49" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="H49" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="I49" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="J49" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="K49" s="3">
         <v>11900</v>
@@ -2577,25 +2577,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>52600</v>
+        <v>52000</v>
       </c>
       <c r="E52" s="3">
-        <v>51100</v>
+        <v>50500</v>
       </c>
       <c r="F52" s="3">
-        <v>51100</v>
+        <v>50600</v>
       </c>
       <c r="G52" s="3">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="H52" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="I52" s="3">
-        <v>80200</v>
+        <v>79400</v>
       </c>
       <c r="J52" s="3">
-        <v>44100</v>
+        <v>43600</v>
       </c>
       <c r="K52" s="3">
         <v>25900</v>
@@ -2671,25 +2671,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1723100</v>
+        <v>1705400</v>
       </c>
       <c r="E54" s="3">
-        <v>1671200</v>
+        <v>1654100</v>
       </c>
       <c r="F54" s="3">
-        <v>1620300</v>
+        <v>1603700</v>
       </c>
       <c r="G54" s="3">
-        <v>1565300</v>
+        <v>1549300</v>
       </c>
       <c r="H54" s="3">
-        <v>1586500</v>
+        <v>1570300</v>
       </c>
       <c r="I54" s="3">
-        <v>1531000</v>
+        <v>1515300</v>
       </c>
       <c r="J54" s="3">
-        <v>1537500</v>
+        <v>1521700</v>
       </c>
       <c r="K54" s="3">
         <v>1437200</v>
@@ -2756,25 +2756,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>86800</v>
+        <v>85900</v>
       </c>
       <c r="E57" s="3">
-        <v>415300</v>
+        <v>411000</v>
       </c>
       <c r="F57" s="3">
-        <v>441300</v>
+        <v>436800</v>
       </c>
       <c r="G57" s="3">
-        <v>428000</v>
+        <v>423600</v>
       </c>
       <c r="H57" s="3">
-        <v>458000</v>
+        <v>453300</v>
       </c>
       <c r="I57" s="3">
-        <v>431300</v>
+        <v>426900</v>
       </c>
       <c r="J57" s="3">
-        <v>89700</v>
+        <v>88800</v>
       </c>
       <c r="K57" s="3">
         <v>388200</v>
@@ -2803,25 +2803,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38300</v>
+        <v>37900</v>
       </c>
       <c r="E58" s="3">
-        <v>38300</v>
+        <v>37900</v>
       </c>
       <c r="F58" s="3">
-        <v>37100</v>
+        <v>36700</v>
       </c>
       <c r="G58" s="3">
-        <v>38200</v>
+        <v>37800</v>
       </c>
       <c r="H58" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="I58" s="3">
-        <v>38300</v>
+        <v>37900</v>
       </c>
       <c r="J58" s="3">
-        <v>48100</v>
+        <v>47600</v>
       </c>
       <c r="K58" s="3">
         <v>36200</v>
@@ -2850,25 +2850,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>408000</v>
+        <v>403800</v>
       </c>
       <c r="E59" s="3">
-        <v>72500</v>
+        <v>71700</v>
       </c>
       <c r="F59" s="3">
-        <v>65700</v>
+        <v>65000</v>
       </c>
       <c r="G59" s="3">
-        <v>58200</v>
+        <v>57600</v>
       </c>
       <c r="H59" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="I59" s="3">
-        <v>45800</v>
+        <v>45300</v>
       </c>
       <c r="J59" s="3">
-        <v>362400</v>
+        <v>358700</v>
       </c>
       <c r="K59" s="3">
         <v>49700</v>
@@ -2897,25 +2897,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>533100</v>
+        <v>527600</v>
       </c>
       <c r="E60" s="3">
-        <v>526000</v>
+        <v>520600</v>
       </c>
       <c r="F60" s="3">
-        <v>544100</v>
+        <v>538600</v>
       </c>
       <c r="G60" s="3">
-        <v>524400</v>
+        <v>519000</v>
       </c>
       <c r="H60" s="3">
-        <v>549600</v>
+        <v>544000</v>
       </c>
       <c r="I60" s="3">
-        <v>515500</v>
+        <v>510200</v>
       </c>
       <c r="J60" s="3">
-        <v>500200</v>
+        <v>495100</v>
       </c>
       <c r="K60" s="3">
         <v>474200</v>
@@ -2944,25 +2944,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59600</v>
+        <v>59000</v>
       </c>
       <c r="E61" s="3">
-        <v>58300</v>
+        <v>57700</v>
       </c>
       <c r="F61" s="3">
-        <v>57400</v>
+        <v>56800</v>
       </c>
       <c r="G61" s="3">
-        <v>56300</v>
+        <v>55800</v>
       </c>
       <c r="H61" s="3">
-        <v>60000</v>
+        <v>59400</v>
       </c>
       <c r="I61" s="3">
-        <v>65700</v>
+        <v>65000</v>
       </c>
       <c r="J61" s="3">
-        <v>70400</v>
+        <v>69700</v>
       </c>
       <c r="K61" s="3">
         <v>48200</v>
@@ -2991,25 +2991,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="E62" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="F62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G62" s="3">
         <v>9500</v>
       </c>
-      <c r="G62" s="3">
-        <v>9600</v>
-      </c>
       <c r="H62" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I62" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="J62" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="K62" s="3">
         <v>11900</v>
@@ -3179,25 +3179,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>601800</v>
+        <v>595600</v>
       </c>
       <c r="E66" s="3">
-        <v>592800</v>
+        <v>586700</v>
       </c>
       <c r="F66" s="3">
-        <v>610400</v>
+        <v>604200</v>
       </c>
       <c r="G66" s="3">
-        <v>589200</v>
+        <v>583200</v>
       </c>
       <c r="H66" s="3">
-        <v>619100</v>
+        <v>612700</v>
       </c>
       <c r="I66" s="3">
-        <v>591400</v>
+        <v>585300</v>
       </c>
       <c r="J66" s="3">
-        <v>581100</v>
+        <v>575100</v>
       </c>
       <c r="K66" s="3">
         <v>534000</v>
@@ -3433,25 +3433,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-30000</v>
+        <v>-29600</v>
       </c>
       <c r="E72" s="3">
-        <v>-72700</v>
+        <v>-71900</v>
       </c>
       <c r="F72" s="3">
-        <v>-136600</v>
+        <v>-135200</v>
       </c>
       <c r="G72" s="3">
-        <v>-170400</v>
+        <v>-168600</v>
       </c>
       <c r="H72" s="3">
-        <v>-179000</v>
+        <v>-177200</v>
       </c>
       <c r="I72" s="3">
-        <v>-206900</v>
+        <v>-204700</v>
       </c>
       <c r="J72" s="3">
-        <v>-234100</v>
+        <v>-231700</v>
       </c>
       <c r="K72" s="3">
         <v>-250600</v>
@@ -3621,25 +3621,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1121300</v>
+        <v>1109800</v>
       </c>
       <c r="E76" s="3">
-        <v>1078500</v>
+        <v>1067400</v>
       </c>
       <c r="F76" s="3">
-        <v>1009900</v>
+        <v>999500</v>
       </c>
       <c r="G76" s="3">
-        <v>976100</v>
+        <v>966100</v>
       </c>
       <c r="H76" s="3">
-        <v>967500</v>
+        <v>957600</v>
       </c>
       <c r="I76" s="3">
-        <v>939600</v>
+        <v>930000</v>
       </c>
       <c r="J76" s="3">
-        <v>956400</v>
+        <v>946600</v>
       </c>
       <c r="K76" s="3">
         <v>903300</v>
@@ -3767,25 +3767,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="E81" s="3">
-        <v>59100</v>
+        <v>58500</v>
       </c>
       <c r="F81" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="G81" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="H81" s="3">
-        <v>26500</v>
+        <v>26300</v>
       </c>
       <c r="I81" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="J81" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="K81" s="3">
         <v>17000</v>

--- a/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>MNSO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>354600</v>
+        <v>448100</v>
       </c>
       <c r="E8" s="3">
-        <v>394100</v>
+        <v>407000</v>
       </c>
       <c r="F8" s="3">
-        <v>329500</v>
+        <v>343700</v>
       </c>
       <c r="G8" s="3">
-        <v>332800</v>
+        <v>382000</v>
       </c>
       <c r="H8" s="3">
-        <v>394200</v>
+        <v>319300</v>
       </c>
       <c r="I8" s="3">
+        <v>322500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>382000</v>
+      </c>
+      <c r="K8" s="3">
         <v>377300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>351500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>310300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>319800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>305300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>228900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>255700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>891900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>212800</v>
+        <v>269600</v>
       </c>
       <c r="E9" s="3">
-        <v>253600</v>
+        <v>247000</v>
       </c>
       <c r="F9" s="3">
-        <v>219700</v>
+        <v>206300</v>
       </c>
       <c r="G9" s="3">
-        <v>232300</v>
+        <v>245800</v>
       </c>
       <c r="H9" s="3">
-        <v>271500</v>
+        <v>213000</v>
       </c>
       <c r="I9" s="3">
+        <v>225200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>263100</v>
+      </c>
+      <c r="K9" s="3">
         <v>273700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>260600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>223100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>230400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>228400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>173000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>172900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>611000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>279300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>141700</v>
+        <v>178500</v>
       </c>
       <c r="E10" s="3">
-        <v>140500</v>
+        <v>160100</v>
       </c>
       <c r="F10" s="3">
-        <v>109700</v>
+        <v>137400</v>
       </c>
       <c r="G10" s="3">
-        <v>100400</v>
+        <v>136200</v>
       </c>
       <c r="H10" s="3">
-        <v>122700</v>
+        <v>106400</v>
       </c>
       <c r="I10" s="3">
+        <v>97300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K10" s="3">
         <v>103500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>90900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>87200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>89500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>77000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>55900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>82700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>280900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,31 +1023,37 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>1300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1024,20 +1064,26 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>-2600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>291000</v>
+        <v>353000</v>
       </c>
       <c r="E17" s="3">
-        <v>321700</v>
+        <v>327700</v>
       </c>
       <c r="F17" s="3">
-        <v>290800</v>
+        <v>282000</v>
       </c>
       <c r="G17" s="3">
-        <v>312700</v>
+        <v>311800</v>
       </c>
       <c r="H17" s="3">
-        <v>357800</v>
+        <v>281800</v>
       </c>
       <c r="I17" s="3">
+        <v>303100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>346800</v>
+      </c>
+      <c r="K17" s="3">
         <v>346900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>324700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>287900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>312300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>305700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>233300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>249400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>775500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>63600</v>
+        <v>95100</v>
       </c>
       <c r="E18" s="3">
-        <v>72400</v>
+        <v>79300</v>
       </c>
       <c r="F18" s="3">
-        <v>38700</v>
+        <v>61700</v>
       </c>
       <c r="G18" s="3">
-        <v>20000</v>
+        <v>70200</v>
       </c>
       <c r="H18" s="3">
-        <v>36300</v>
+        <v>37500</v>
       </c>
       <c r="I18" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K18" s="3">
         <v>30300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>26700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>22400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>7600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>6200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>116500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1278,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3300</v>
+        <v>5100</v>
       </c>
       <c r="E20" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F20" s="3">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="G20" s="3">
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="H20" s="3">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="I20" s="3">
+        <v>600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-239200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>26900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-128300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-87300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1294,20 +1368,26 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>6900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>64400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>-27400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1341,114 +1421,132 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>66900</v>
+        <v>100200</v>
       </c>
       <c r="E23" s="3">
-        <v>76000</v>
+        <v>82800</v>
       </c>
       <c r="F23" s="3">
-        <v>41400</v>
+        <v>64900</v>
       </c>
       <c r="G23" s="3">
-        <v>20700</v>
+        <v>73700</v>
       </c>
       <c r="H23" s="3">
-        <v>37000</v>
+        <v>40100</v>
       </c>
       <c r="I23" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K23" s="3">
         <v>29800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>26300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>22600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-239500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>29900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-37900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15800</v>
+        <v>24800</v>
       </c>
       <c r="E24" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="F24" s="3">
-        <v>11800</v>
+        <v>15300</v>
       </c>
       <c r="G24" s="3">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="H24" s="3">
-        <v>10800</v>
+        <v>11400</v>
       </c>
       <c r="I24" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="J24" s="3">
         <v>10500</v>
       </c>
       <c r="K24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>22800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>13200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>51100</v>
+        <v>75400</v>
       </c>
       <c r="E26" s="3">
-        <v>57400</v>
+        <v>64900</v>
       </c>
       <c r="F26" s="3">
-        <v>29600</v>
+        <v>49600</v>
       </c>
       <c r="G26" s="3">
-        <v>13200</v>
+        <v>55700</v>
       </c>
       <c r="H26" s="3">
-        <v>26200</v>
+        <v>28700</v>
       </c>
       <c r="I26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K26" s="3">
         <v>22000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>15800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>16000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-247000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-11000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>26600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>50100</v>
+        <v>74300</v>
       </c>
       <c r="E27" s="3">
-        <v>58500</v>
+        <v>64100</v>
       </c>
       <c r="F27" s="3">
-        <v>29100</v>
+        <v>48600</v>
       </c>
       <c r="G27" s="3">
-        <v>13700</v>
+        <v>56700</v>
       </c>
       <c r="H27" s="3">
-        <v>26300</v>
+        <v>28200</v>
       </c>
       <c r="I27" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K27" s="3">
         <v>21600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>16300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>17000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-246500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-12000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>27300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-51800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1646,44 +1768,50 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>4800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-15400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3300</v>
+        <v>-5100</v>
       </c>
       <c r="E32" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2700</v>
+        <v>-3200</v>
       </c>
       <c r="G32" s="3">
-        <v>-700</v>
+        <v>-3500</v>
       </c>
       <c r="H32" s="3">
-        <v>-700</v>
+        <v>-2600</v>
       </c>
       <c r="I32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>239200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-26900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>128300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>87300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>50100</v>
+        <v>74300</v>
       </c>
       <c r="E33" s="3">
-        <v>58500</v>
+        <v>64100</v>
       </c>
       <c r="F33" s="3">
-        <v>29100</v>
+        <v>48600</v>
       </c>
       <c r="G33" s="3">
-        <v>13700</v>
+        <v>56700</v>
       </c>
       <c r="H33" s="3">
-        <v>26300</v>
+        <v>28200</v>
       </c>
       <c r="I33" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K33" s="3">
         <v>21600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>16300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>17000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-246500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>50100</v>
+        <v>74300</v>
       </c>
       <c r="E35" s="3">
-        <v>58500</v>
+        <v>64100</v>
       </c>
       <c r="F35" s="3">
-        <v>29100</v>
+        <v>48600</v>
       </c>
       <c r="G35" s="3">
-        <v>13700</v>
+        <v>56700</v>
       </c>
       <c r="H35" s="3">
-        <v>26300</v>
+        <v>28200</v>
       </c>
       <c r="I35" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K35" s="3">
         <v>21600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>16300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>17000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-246500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,326 +2226,364 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>737300</v>
+        <v>894100</v>
       </c>
       <c r="E41" s="3">
-        <v>765900</v>
+        <v>879100</v>
       </c>
       <c r="F41" s="3">
-        <v>760300</v>
+        <v>714600</v>
       </c>
       <c r="G41" s="3">
-        <v>749100</v>
+        <v>742400</v>
       </c>
       <c r="H41" s="3">
-        <v>732300</v>
+        <v>736900</v>
       </c>
       <c r="I41" s="3">
+        <v>726100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>709800</v>
+      </c>
+      <c r="K41" s="3">
         <v>843100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>962600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>963900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>952200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>436300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>420600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>377200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>134400</v>
+        <v>108400</v>
       </c>
       <c r="E42" s="3">
-        <v>83800</v>
+        <v>94300</v>
       </c>
       <c r="F42" s="3">
-        <v>63600</v>
+        <v>130200</v>
       </c>
       <c r="G42" s="3">
-        <v>29400</v>
+        <v>81200</v>
       </c>
       <c r="H42" s="3">
-        <v>29600</v>
+        <v>61600</v>
       </c>
       <c r="I42" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K42" s="3">
         <v>29200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>14600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>14100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>21300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>146700</v>
+        <v>158500</v>
       </c>
       <c r="E43" s="3">
-        <v>157100</v>
+        <v>138100</v>
       </c>
       <c r="F43" s="3">
-        <v>150100</v>
+        <v>142200</v>
       </c>
       <c r="G43" s="3">
-        <v>150800</v>
+        <v>152300</v>
       </c>
       <c r="H43" s="3">
-        <v>158300</v>
+        <v>145500</v>
       </c>
       <c r="I43" s="3">
+        <v>146100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K43" s="3">
         <v>144300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>110100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>111100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>106700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>104100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>97900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>181300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>209600</v>
+        <v>199900</v>
       </c>
       <c r="E44" s="3">
-        <v>187100</v>
+        <v>191800</v>
       </c>
       <c r="F44" s="3">
-        <v>168900</v>
+        <v>203200</v>
       </c>
       <c r="G44" s="3">
-        <v>165300</v>
+        <v>181400</v>
       </c>
       <c r="H44" s="3">
-        <v>193500</v>
+        <v>163700</v>
       </c>
       <c r="I44" s="3">
+        <v>160200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>187500</v>
+      </c>
+      <c r="K44" s="3">
         <v>221600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>212700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>184500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>196700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>195200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>205700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>214100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14900</v>
+        <v>3700</v>
       </c>
       <c r="E45" s="3">
-        <v>4200</v>
+        <v>3300</v>
       </c>
       <c r="F45" s="3">
-        <v>4600</v>
+        <v>14500</v>
       </c>
       <c r="G45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>10700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>11100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1242900</v>
+        <v>1364600</v>
       </c>
       <c r="E46" s="3">
-        <v>1198200</v>
+        <v>1306700</v>
       </c>
       <c r="F46" s="3">
-        <v>1147500</v>
+        <v>1204700</v>
       </c>
       <c r="G46" s="3">
-        <v>1096000</v>
+        <v>1161300</v>
       </c>
       <c r="H46" s="3">
-        <v>1114700</v>
+        <v>1112200</v>
       </c>
       <c r="I46" s="3">
+        <v>1062300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1080400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1238500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1307700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1273700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1269700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>736200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>734800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>805100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>34200</v>
       </c>
       <c r="E47" s="3">
-        <v>3300</v>
+        <v>4200</v>
       </c>
       <c r="F47" s="3">
         <v>4000</v>
       </c>
       <c r="G47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I47" s="3">
         <v>1400</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>48900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>50000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>49400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>49600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2383,102 +2593,120 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>398700</v>
+        <v>425400</v>
       </c>
       <c r="E48" s="3">
-        <v>393900</v>
+        <v>388400</v>
       </c>
       <c r="F48" s="3">
-        <v>392700</v>
+        <v>386400</v>
       </c>
       <c r="G48" s="3">
-        <v>390600</v>
+        <v>381800</v>
       </c>
       <c r="H48" s="3">
-        <v>393400</v>
+        <v>380600</v>
       </c>
       <c r="I48" s="3">
+        <v>378600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>381400</v>
+      </c>
+      <c r="K48" s="3">
         <v>137600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>108900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>76200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>78900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>79100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>87100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>93800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7700</v>
+        <v>6400</v>
       </c>
       <c r="E49" s="3">
-        <v>8200</v>
+        <v>6900</v>
       </c>
       <c r="F49" s="3">
-        <v>8900</v>
+        <v>7500</v>
       </c>
       <c r="G49" s="3">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="H49" s="3">
-        <v>10400</v>
+        <v>8600</v>
       </c>
       <c r="I49" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K49" s="3">
         <v>10800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>11500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>11900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>9800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>10700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>10200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>9900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>52000</v>
+        <v>22300</v>
       </c>
       <c r="E52" s="3">
-        <v>50500</v>
+        <v>24600</v>
       </c>
       <c r="F52" s="3">
-        <v>50600</v>
+        <v>50400</v>
       </c>
       <c r="G52" s="3">
-        <v>51800</v>
+        <v>49000</v>
       </c>
       <c r="H52" s="3">
-        <v>51800</v>
+        <v>49100</v>
       </c>
       <c r="I52" s="3">
+        <v>50200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K52" s="3">
         <v>79400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>43600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>25900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>26800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>27800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>27900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>26300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1705400</v>
+        <v>1852800</v>
       </c>
       <c r="E54" s="3">
-        <v>1654100</v>
+        <v>1730700</v>
       </c>
       <c r="F54" s="3">
-        <v>1603700</v>
+        <v>1653000</v>
       </c>
       <c r="G54" s="3">
-        <v>1549300</v>
+        <v>1603300</v>
       </c>
       <c r="H54" s="3">
-        <v>1570300</v>
+        <v>1554400</v>
       </c>
       <c r="I54" s="3">
+        <v>1501700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1515300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1521700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1437200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1434700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>853900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>860000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>935100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +3010,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>85900</v>
+        <v>416000</v>
       </c>
       <c r="E57" s="3">
-        <v>411000</v>
+        <v>414900</v>
       </c>
       <c r="F57" s="3">
-        <v>436800</v>
+        <v>83300</v>
       </c>
       <c r="G57" s="3">
-        <v>423600</v>
+        <v>398400</v>
       </c>
       <c r="H57" s="3">
-        <v>453300</v>
+        <v>423400</v>
       </c>
       <c r="I57" s="3">
+        <v>410600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>439400</v>
+      </c>
+      <c r="K57" s="3">
         <v>426900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>88800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>388200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>404300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>402200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>71200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>102300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37900</v>
+        <v>45300</v>
       </c>
       <c r="E58" s="3">
-        <v>37900</v>
+        <v>37700</v>
       </c>
       <c r="F58" s="3">
         <v>36700</v>
       </c>
       <c r="G58" s="3">
-        <v>37800</v>
+        <v>36700</v>
       </c>
       <c r="H58" s="3">
-        <v>38900</v>
+        <v>35600</v>
       </c>
       <c r="I58" s="3">
+        <v>36600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K58" s="3">
         <v>37900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>47600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>36200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>33000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>32100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>92100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>95700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>403800</v>
+        <v>74000</v>
       </c>
       <c r="E59" s="3">
-        <v>71700</v>
+        <v>69700</v>
       </c>
       <c r="F59" s="3">
-        <v>65000</v>
+        <v>391400</v>
       </c>
       <c r="G59" s="3">
-        <v>57600</v>
+        <v>69500</v>
       </c>
       <c r="H59" s="3">
-        <v>51800</v>
+        <v>63000</v>
       </c>
       <c r="I59" s="3">
+        <v>55900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K59" s="3">
         <v>45300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>358700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>49700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>51700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>45100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>324400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>355500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>527600</v>
+        <v>535400</v>
       </c>
       <c r="E60" s="3">
-        <v>520600</v>
+        <v>522200</v>
       </c>
       <c r="F60" s="3">
-        <v>538600</v>
+        <v>511400</v>
       </c>
       <c r="G60" s="3">
-        <v>519000</v>
+        <v>504600</v>
       </c>
       <c r="H60" s="3">
-        <v>544000</v>
+        <v>522000</v>
       </c>
       <c r="I60" s="3">
+        <v>503000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>527300</v>
+      </c>
+      <c r="K60" s="3">
         <v>510200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>495100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>474200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>489000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>479300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>487700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>553500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59000</v>
+        <v>77700</v>
       </c>
       <c r="E61" s="3">
-        <v>57700</v>
+        <v>56000</v>
       </c>
       <c r="F61" s="3">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="G61" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="H61" s="3">
-        <v>59400</v>
+        <v>55100</v>
       </c>
       <c r="I61" s="3">
+        <v>54000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K61" s="3">
         <v>65000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>69700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>48200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>51600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>642000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>409000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>430500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8800</v>
+        <v>11000</v>
       </c>
       <c r="E62" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I62" s="3">
         <v>9200</v>
       </c>
-      <c r="F62" s="3">
-        <v>9400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>9500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K62" s="3">
         <v>10700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>11400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>11900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>12400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>9700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>10900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>12500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>595600</v>
+        <v>626400</v>
       </c>
       <c r="E66" s="3">
-        <v>586700</v>
+        <v>590500</v>
       </c>
       <c r="F66" s="3">
-        <v>604200</v>
+        <v>577300</v>
       </c>
       <c r="G66" s="3">
-        <v>583200</v>
+        <v>568700</v>
       </c>
       <c r="H66" s="3">
-        <v>612700</v>
+        <v>585600</v>
       </c>
       <c r="I66" s="3">
+        <v>565300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>593900</v>
+      </c>
+      <c r="K66" s="3">
         <v>585300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>575100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>534000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>554300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1132300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>909600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>997300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29600</v>
+        <v>226800</v>
       </c>
       <c r="E72" s="3">
-        <v>-71900</v>
+        <v>39900</v>
       </c>
       <c r="F72" s="3">
-        <v>-135200</v>
+        <v>-28700</v>
       </c>
       <c r="G72" s="3">
-        <v>-168600</v>
+        <v>-69700</v>
       </c>
       <c r="H72" s="3">
-        <v>-177200</v>
+        <v>-131100</v>
       </c>
       <c r="I72" s="3">
+        <v>-163500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-171700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-204700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-231700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-250600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-273500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-302600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-73500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-84300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1109800</v>
+        <v>1226400</v>
       </c>
       <c r="E76" s="3">
-        <v>1067400</v>
+        <v>1140200</v>
       </c>
       <c r="F76" s="3">
-        <v>999500</v>
+        <v>1075700</v>
       </c>
       <c r="G76" s="3">
-        <v>966100</v>
+        <v>1034600</v>
       </c>
       <c r="H76" s="3">
-        <v>957600</v>
+        <v>968800</v>
       </c>
       <c r="I76" s="3">
+        <v>936400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>928100</v>
+      </c>
+      <c r="K76" s="3">
         <v>930000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>946600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>903300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>880400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-278500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-49600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-62200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>50100</v>
+        <v>74300</v>
       </c>
       <c r="E81" s="3">
-        <v>58500</v>
+        <v>64100</v>
       </c>
       <c r="F81" s="3">
-        <v>29100</v>
+        <v>48600</v>
       </c>
       <c r="G81" s="3">
-        <v>13700</v>
+        <v>56700</v>
       </c>
       <c r="H81" s="3">
-        <v>26300</v>
+        <v>28200</v>
       </c>
       <c r="I81" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K81" s="3">
         <v>21600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>16300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>17000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-246500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-70200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,31 +4537,37 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>59700</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4156,8 +4590,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,31 +4770,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-66900</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4394,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-51100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,31 +5056,37 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-20600</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4617,31 +5109,37 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>5600</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4664,31 +5162,37 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-22300</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4709,6 +5213,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MNSO_QTR_FIN.xlsx
@@ -749,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>448100</v>
+        <v>449100</v>
       </c>
       <c r="E8" s="3">
-        <v>407000</v>
+        <v>407900</v>
       </c>
       <c r="F8" s="3">
-        <v>343700</v>
+        <v>344400</v>
       </c>
       <c r="G8" s="3">
-        <v>382000</v>
+        <v>382800</v>
       </c>
       <c r="H8" s="3">
-        <v>319300</v>
+        <v>320000</v>
       </c>
       <c r="I8" s="3">
-        <v>322500</v>
+        <v>323200</v>
       </c>
       <c r="J8" s="3">
-        <v>382000</v>
+        <v>382900</v>
       </c>
       <c r="K8" s="3">
         <v>377300</v>
@@ -802,25 +802,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>269600</v>
+        <v>270200</v>
       </c>
       <c r="E9" s="3">
-        <v>247000</v>
+        <v>247500</v>
       </c>
       <c r="F9" s="3">
-        <v>206300</v>
+        <v>206800</v>
       </c>
       <c r="G9" s="3">
-        <v>245800</v>
+        <v>246300</v>
       </c>
       <c r="H9" s="3">
-        <v>213000</v>
+        <v>213400</v>
       </c>
       <c r="I9" s="3">
-        <v>225200</v>
+        <v>225700</v>
       </c>
       <c r="J9" s="3">
-        <v>263100</v>
+        <v>263700</v>
       </c>
       <c r="K9" s="3">
         <v>273700</v>
@@ -855,25 +855,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>178500</v>
+        <v>178900</v>
       </c>
       <c r="E10" s="3">
-        <v>160100</v>
+        <v>160400</v>
       </c>
       <c r="F10" s="3">
-        <v>137400</v>
+        <v>137700</v>
       </c>
       <c r="G10" s="3">
-        <v>136200</v>
+        <v>136500</v>
       </c>
       <c r="H10" s="3">
-        <v>106400</v>
+        <v>106600</v>
       </c>
       <c r="I10" s="3">
-        <v>97300</v>
+        <v>97600</v>
       </c>
       <c r="J10" s="3">
-        <v>118900</v>
+        <v>119200</v>
       </c>
       <c r="K10" s="3">
         <v>103500</v>
@@ -1159,25 +1159,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>353000</v>
+        <v>353800</v>
       </c>
       <c r="E17" s="3">
-        <v>327700</v>
+        <v>328400</v>
       </c>
       <c r="F17" s="3">
-        <v>282000</v>
+        <v>282600</v>
       </c>
       <c r="G17" s="3">
-        <v>311800</v>
+        <v>312500</v>
       </c>
       <c r="H17" s="3">
-        <v>281800</v>
+        <v>282500</v>
       </c>
       <c r="I17" s="3">
-        <v>303100</v>
+        <v>303800</v>
       </c>
       <c r="J17" s="3">
-        <v>346800</v>
+        <v>347600</v>
       </c>
       <c r="K17" s="3">
         <v>346900</v>
@@ -1212,25 +1212,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>95100</v>
+        <v>95300</v>
       </c>
       <c r="E18" s="3">
-        <v>79300</v>
+        <v>79500</v>
       </c>
       <c r="F18" s="3">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="G18" s="3">
-        <v>70200</v>
+        <v>70300</v>
       </c>
       <c r="H18" s="3">
-        <v>37500</v>
+        <v>37600</v>
       </c>
       <c r="I18" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="J18" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="K18" s="3">
         <v>30300</v>
@@ -1445,25 +1445,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100200</v>
+        <v>100400</v>
       </c>
       <c r="E23" s="3">
-        <v>82800</v>
+        <v>83000</v>
       </c>
       <c r="F23" s="3">
-        <v>64900</v>
+        <v>65000</v>
       </c>
       <c r="G23" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="H23" s="3">
-        <v>40100</v>
+        <v>40200</v>
       </c>
       <c r="I23" s="3">
         <v>20100</v>
       </c>
       <c r="J23" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="K23" s="3">
         <v>29800</v>
@@ -1498,10 +1498,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="E24" s="3">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="F24" s="3">
         <v>15300</v>
@@ -1604,19 +1604,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>75400</v>
+        <v>75500</v>
       </c>
       <c r="E26" s="3">
-        <v>64900</v>
+        <v>65000</v>
       </c>
       <c r="F26" s="3">
-        <v>49600</v>
+        <v>49700</v>
       </c>
       <c r="G26" s="3">
-        <v>55700</v>
+        <v>55800</v>
       </c>
       <c r="H26" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="I26" s="3">
         <v>12800</v>
@@ -1657,19 +1657,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74300</v>
+        <v>74500</v>
       </c>
       <c r="E27" s="3">
-        <v>64100</v>
+        <v>64300</v>
       </c>
       <c r="F27" s="3">
-        <v>48600</v>
+        <v>48700</v>
       </c>
       <c r="G27" s="3">
-        <v>56700</v>
+        <v>56800</v>
       </c>
       <c r="H27" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="I27" s="3">
         <v>13300</v>
@@ -1975,19 +1975,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74300</v>
+        <v>74500</v>
       </c>
       <c r="E33" s="3">
-        <v>64100</v>
+        <v>64300</v>
       </c>
       <c r="F33" s="3">
-        <v>48600</v>
+        <v>48700</v>
       </c>
       <c r="G33" s="3">
-        <v>56700</v>
+        <v>56800</v>
       </c>
       <c r="H33" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="I33" s="3">
         <v>13300</v>
@@ -2081,19 +2081,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74300</v>
+        <v>74500</v>
       </c>
       <c r="E35" s="3">
-        <v>64100</v>
+        <v>64300</v>
       </c>
       <c r="F35" s="3">
-        <v>48600</v>
+        <v>48700</v>
       </c>
       <c r="G35" s="3">
-        <v>56700</v>
+        <v>56800</v>
       </c>
       <c r="H35" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="I35" s="3">
         <v>13300</v>
@@ -2234,25 +2234,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>894100</v>
+        <v>896000</v>
       </c>
       <c r="E41" s="3">
-        <v>879100</v>
+        <v>881000</v>
       </c>
       <c r="F41" s="3">
-        <v>714600</v>
+        <v>716200</v>
       </c>
       <c r="G41" s="3">
-        <v>742400</v>
+        <v>744000</v>
       </c>
       <c r="H41" s="3">
-        <v>736900</v>
+        <v>738500</v>
       </c>
       <c r="I41" s="3">
-        <v>726100</v>
+        <v>727700</v>
       </c>
       <c r="J41" s="3">
-        <v>709800</v>
+        <v>711300</v>
       </c>
       <c r="K41" s="3">
         <v>843100</v>
@@ -2287,25 +2287,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>108400</v>
+        <v>108700</v>
       </c>
       <c r="E42" s="3">
-        <v>94300</v>
+        <v>94500</v>
       </c>
       <c r="F42" s="3">
-        <v>130200</v>
+        <v>130500</v>
       </c>
       <c r="G42" s="3">
-        <v>81200</v>
+        <v>81400</v>
       </c>
       <c r="H42" s="3">
-        <v>61600</v>
+        <v>61800</v>
       </c>
       <c r="I42" s="3">
         <v>28500</v>
       </c>
       <c r="J42" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="K42" s="3">
         <v>29200</v>
@@ -2340,25 +2340,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>158500</v>
+        <v>143900</v>
       </c>
       <c r="E43" s="3">
-        <v>138100</v>
+        <v>138400</v>
       </c>
       <c r="F43" s="3">
-        <v>142200</v>
+        <v>142500</v>
       </c>
       <c r="G43" s="3">
-        <v>152300</v>
+        <v>152600</v>
       </c>
       <c r="H43" s="3">
-        <v>145500</v>
+        <v>145800</v>
       </c>
       <c r="I43" s="3">
-        <v>146100</v>
+        <v>146400</v>
       </c>
       <c r="J43" s="3">
-        <v>153400</v>
+        <v>153800</v>
       </c>
       <c r="K43" s="3">
         <v>144300</v>
@@ -2393,25 +2393,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>199900</v>
+        <v>200300</v>
       </c>
       <c r="E44" s="3">
-        <v>191800</v>
+        <v>192300</v>
       </c>
       <c r="F44" s="3">
-        <v>203200</v>
+        <v>203600</v>
       </c>
       <c r="G44" s="3">
-        <v>181400</v>
+        <v>181800</v>
       </c>
       <c r="H44" s="3">
-        <v>163700</v>
+        <v>164100</v>
       </c>
       <c r="I44" s="3">
-        <v>160200</v>
+        <v>160600</v>
       </c>
       <c r="J44" s="3">
-        <v>187500</v>
+        <v>187900</v>
       </c>
       <c r="K44" s="3">
         <v>221600</v>
@@ -2446,7 +2446,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3700</v>
+        <v>18600</v>
       </c>
       <c r="E45" s="3">
         <v>3300</v>
@@ -2499,25 +2499,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1364600</v>
+        <v>1367500</v>
       </c>
       <c r="E46" s="3">
-        <v>1306700</v>
+        <v>1309500</v>
       </c>
       <c r="F46" s="3">
-        <v>1204700</v>
+        <v>1207300</v>
       </c>
       <c r="G46" s="3">
-        <v>1161300</v>
+        <v>1163900</v>
       </c>
       <c r="H46" s="3">
-        <v>1112200</v>
+        <v>1114700</v>
       </c>
       <c r="I46" s="3">
-        <v>1062300</v>
+        <v>1064600</v>
       </c>
       <c r="J46" s="3">
-        <v>1080400</v>
+        <v>1082800</v>
       </c>
       <c r="K46" s="3">
         <v>1238500</v>
@@ -2552,7 +2552,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="E47" s="3">
         <v>4200</v>
@@ -2605,25 +2605,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>425400</v>
+        <v>426300</v>
       </c>
       <c r="E48" s="3">
-        <v>388400</v>
+        <v>389200</v>
       </c>
       <c r="F48" s="3">
-        <v>386400</v>
+        <v>387300</v>
       </c>
       <c r="G48" s="3">
-        <v>381800</v>
+        <v>382600</v>
       </c>
       <c r="H48" s="3">
-        <v>380600</v>
+        <v>381400</v>
       </c>
       <c r="I48" s="3">
-        <v>378600</v>
+        <v>379400</v>
       </c>
       <c r="J48" s="3">
-        <v>381400</v>
+        <v>382200</v>
       </c>
       <c r="K48" s="3">
         <v>137600</v>
@@ -2820,22 +2820,22 @@
         <v>22300</v>
       </c>
       <c r="E52" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="F52" s="3">
-        <v>50400</v>
+        <v>50500</v>
       </c>
       <c r="G52" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="H52" s="3">
-        <v>49100</v>
+        <v>49200</v>
       </c>
       <c r="I52" s="3">
-        <v>50200</v>
+        <v>50300</v>
       </c>
       <c r="J52" s="3">
-        <v>50200</v>
+        <v>50300</v>
       </c>
       <c r="K52" s="3">
         <v>79400</v>
@@ -2923,25 +2923,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1852800</v>
+        <v>1856900</v>
       </c>
       <c r="E54" s="3">
-        <v>1730700</v>
+        <v>1734500</v>
       </c>
       <c r="F54" s="3">
-        <v>1653000</v>
+        <v>1656600</v>
       </c>
       <c r="G54" s="3">
-        <v>1603300</v>
+        <v>1606800</v>
       </c>
       <c r="H54" s="3">
-        <v>1554400</v>
+        <v>1557800</v>
       </c>
       <c r="I54" s="3">
-        <v>1501700</v>
+        <v>1505000</v>
       </c>
       <c r="J54" s="3">
-        <v>1522000</v>
+        <v>1525300</v>
       </c>
       <c r="K54" s="3">
         <v>1515300</v>
@@ -3018,25 +3018,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>416000</v>
+        <v>90300</v>
       </c>
       <c r="E57" s="3">
-        <v>414900</v>
+        <v>415800</v>
       </c>
       <c r="F57" s="3">
-        <v>83300</v>
+        <v>83400</v>
       </c>
       <c r="G57" s="3">
-        <v>398400</v>
+        <v>399200</v>
       </c>
       <c r="H57" s="3">
-        <v>423400</v>
+        <v>424300</v>
       </c>
       <c r="I57" s="3">
-        <v>410600</v>
+        <v>411500</v>
       </c>
       <c r="J57" s="3">
-        <v>439400</v>
+        <v>440300</v>
       </c>
       <c r="K57" s="3">
         <v>426900</v>
@@ -3071,25 +3071,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="E58" s="3">
         <v>37700</v>
       </c>
       <c r="F58" s="3">
+        <v>36800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>36800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>35700</v>
+      </c>
+      <c r="I58" s="3">
         <v>36700</v>
       </c>
-      <c r="G58" s="3">
-        <v>36700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>35600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>36600</v>
-      </c>
       <c r="J58" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="K58" s="3">
         <v>37900</v>
@@ -3124,25 +3124,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74000</v>
+        <v>400800</v>
       </c>
       <c r="E59" s="3">
+        <v>69800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>392300</v>
+      </c>
+      <c r="G59" s="3">
         <v>69700</v>
       </c>
-      <c r="F59" s="3">
-        <v>391400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>69500</v>
-      </c>
       <c r="H59" s="3">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="I59" s="3">
-        <v>55900</v>
+        <v>56000</v>
       </c>
       <c r="J59" s="3">
-        <v>50200</v>
+        <v>50300</v>
       </c>
       <c r="K59" s="3">
         <v>45300</v>
@@ -3177,25 +3177,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>535400</v>
+        <v>536500</v>
       </c>
       <c r="E60" s="3">
-        <v>522200</v>
+        <v>523300</v>
       </c>
       <c r="F60" s="3">
-        <v>511400</v>
+        <v>512500</v>
       </c>
       <c r="G60" s="3">
-        <v>504600</v>
+        <v>505700</v>
       </c>
       <c r="H60" s="3">
-        <v>522000</v>
+        <v>523100</v>
       </c>
       <c r="I60" s="3">
-        <v>503000</v>
+        <v>504100</v>
       </c>
       <c r="J60" s="3">
-        <v>527300</v>
+        <v>528400</v>
       </c>
       <c r="K60" s="3">
         <v>510200</v>
@@ -3230,25 +3230,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77700</v>
+        <v>77900</v>
       </c>
       <c r="E61" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>57300</v>
+      </c>
+      <c r="G61" s="3">
         <v>56000</v>
       </c>
-      <c r="F61" s="3">
-        <v>57200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>55900</v>
-      </c>
       <c r="H61" s="3">
-        <v>55100</v>
+        <v>55200</v>
       </c>
       <c r="I61" s="3">
-        <v>54000</v>
+        <v>54200</v>
       </c>
       <c r="J61" s="3">
-        <v>57500</v>
+        <v>57700</v>
       </c>
       <c r="K61" s="3">
         <v>65000</v>
@@ -3495,25 +3495,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>626400</v>
+        <v>627800</v>
       </c>
       <c r="E66" s="3">
-        <v>590500</v>
+        <v>591800</v>
       </c>
       <c r="F66" s="3">
-        <v>577300</v>
+        <v>578500</v>
       </c>
       <c r="G66" s="3">
-        <v>568700</v>
+        <v>569900</v>
       </c>
       <c r="H66" s="3">
-        <v>585600</v>
+        <v>586900</v>
       </c>
       <c r="I66" s="3">
-        <v>565300</v>
+        <v>566500</v>
       </c>
       <c r="J66" s="3">
-        <v>593900</v>
+        <v>595200</v>
       </c>
       <c r="K66" s="3">
         <v>585300</v>
@@ -3781,25 +3781,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>226800</v>
+        <v>227300</v>
       </c>
       <c r="E72" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="F72" s="3">
-        <v>-28700</v>
+        <v>-28800</v>
       </c>
       <c r="G72" s="3">
-        <v>-69700</v>
+        <v>-69900</v>
       </c>
       <c r="H72" s="3">
-        <v>-131100</v>
+        <v>-131400</v>
       </c>
       <c r="I72" s="3">
-        <v>-163500</v>
+        <v>-163800</v>
       </c>
       <c r="J72" s="3">
-        <v>-171700</v>
+        <v>-172100</v>
       </c>
       <c r="K72" s="3">
         <v>-204700</v>
@@ -3993,25 +3993,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1226400</v>
+        <v>1229100</v>
       </c>
       <c r="E76" s="3">
-        <v>1140200</v>
+        <v>1142700</v>
       </c>
       <c r="F76" s="3">
-        <v>1075700</v>
+        <v>1078000</v>
       </c>
       <c r="G76" s="3">
-        <v>1034600</v>
+        <v>1036900</v>
       </c>
       <c r="H76" s="3">
-        <v>968800</v>
+        <v>970900</v>
       </c>
       <c r="I76" s="3">
-        <v>936400</v>
+        <v>938500</v>
       </c>
       <c r="J76" s="3">
-        <v>928100</v>
+        <v>930200</v>
       </c>
       <c r="K76" s="3">
         <v>930000</v>
@@ -4157,19 +4157,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74300</v>
+        <v>74500</v>
       </c>
       <c r="E81" s="3">
-        <v>64100</v>
+        <v>64300</v>
       </c>
       <c r="F81" s="3">
-        <v>48600</v>
+        <v>48700</v>
       </c>
       <c r="G81" s="3">
-        <v>56700</v>
+        <v>56800</v>
       </c>
       <c r="H81" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="I81" s="3">
         <v>13300</v>
@@ -4555,7 +4555,7 @@
         <v>8</v>
       </c>
       <c r="F89" s="3">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
@@ -4623,7 +4623,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-96100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>-66900</v>
+        <v>-67100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-51100</v>
+        <v>-51200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5074,7 +5074,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
@@ -5180,7 +5180,7 @@
         <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>-22300</v>
+        <v>-22400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
